--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAFC002-346D-2743-A1FA-F0B50572A905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC4F1C-50B2-D54B-8D22-35393C5430CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-20400" windowWidth="21600" windowHeight="38400" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -939,11 +939,6 @@
     <t>管理画面</t>
   </si>
   <si>
-    <t>管理者と店舗代表者と利用者の3つの権限を作成する
-店舗代表者が店舗情報の作成、更新と予約情報の確認ができる管理画面を作成する
-管理者側は店舗代表者を作成できる管理画面を作成する</t>
-  </si>
-  <si>
     <t>ストレージ</t>
   </si>
   <si>
@@ -1001,7 +996,13 @@
       </rPr>
       <t>を利用して決済をすることができる</t>
     </r>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>管理者と店舗代表者と利用者の3つの権限を作成する
+店舗代表者が店舗情報の作成、更新と予約情報の確認ができる管理画面を作成する
+管理者側は店舗代表者を作成できる管理画面を作成する</t>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -1012,7 +1013,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1024,48 +1025,57 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1073,12 +1083,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1088,12 +1100,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1358,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1466,6 +1472,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1475,44 +1485,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2921,7 +2932,7 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2942,13 +2953,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2962,14 +2973,14 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="82" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2977,17 +2988,17 @@
       <c r="A1" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="79" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2995,18 +3006,18 @@
       <c r="A4" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="80" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="80" t="s">
         <v>277</v>
       </c>
       <c r="C5" s="23" t="b">
@@ -3017,7 +3028,7 @@
       <c r="A6" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="80" t="s">
         <v>278</v>
       </c>
       <c r="C6" s="23" t="b">
@@ -3028,19 +3039,19 @@
       <c r="A7" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="80" t="s">
         <v>280</v>
       </c>
       <c r="C7" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>282</v>
+      <c r="B8" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>0</v>
@@ -3051,10 +3062,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>283</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="C9" s="23" t="b">
         <v>1</v>
@@ -3062,10 +3073,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="80" t="s">
         <v>285</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3073,10 +3084,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="80" t="s">
         <v>287</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3084,10 +3095,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="80" t="s">
         <v>289</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3095,10 +3106,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>291</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
@@ -3106,10 +3117,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>297</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3117,10 +3128,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="80" t="s">
         <v>294</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="C15" s="23" t="b">
         <v>0</v>
@@ -3128,10 +3139,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="80" t="s">
         <v>296</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="C16" s="23" t="b">
         <v>0</v>
@@ -4118,7 +4129,7 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
@@ -4132,7 +4143,9 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4144,146 +4157,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="49" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4294,8 +4307,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4304,8 +4317,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4314,8 +4327,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4324,8 +4337,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="48"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4336,8 +4349,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4346,8 +4359,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4356,8 +4369,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4366,8 +4379,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4376,8 +4389,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4388,8 +4401,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4398,8 +4411,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4408,33 +4421,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5413,6 +5426,21 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B8:C8"/>
@@ -5422,23 +5450,8 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5450,7 +5463,9 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6799,7 +6814,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -7909,7 +7924,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
@@ -9099,7 +9114,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9111,7 +9126,7 @@
   </sheetPr>
   <dimension ref="A1:F1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" zoomScale="59" zoomScaleNormal="59" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11351,7 +11366,7 @@
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12371,7 +12386,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12455,7 +12470,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="67"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -12465,7 +12480,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="48"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -12475,7 +12490,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -12483,9 +12498,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="67"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="69"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -12493,9 +12508,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="57"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -12505,7 +12520,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -12513,9 +12528,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="71"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -12523,9 +12538,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="57"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -12535,7 +12550,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -12545,7 +12560,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="70"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -12555,7 +12570,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -12575,7 +12590,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="67"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -12585,7 +12600,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="49"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -12593,9 +12608,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="67"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="68"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -12603,9 +12618,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="59"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -12613,9 +12628,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -12623,9 +12638,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="57"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -12635,7 +12650,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="59"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -12663,9 +12678,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="70"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -12673,9 +12688,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="57"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -12685,7 +12700,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="59"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -12705,7 +12720,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="67"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -12715,7 +12730,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -12755,10 +12770,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -12767,10 +12782,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -12779,8 +12794,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -12789,8 +12804,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="52"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -12799,8 +12814,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -12809,8 +12824,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="52"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -12819,8 +12834,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -12829,8 +12844,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12839,8 +12854,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12871,10 +12886,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12883,10 +12898,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="52"/>
+      <c r="D47" s="48"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12895,8 +12910,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="52"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12905,8 +12920,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="52"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12915,8 +12930,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="52"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12925,8 +12940,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="52"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12935,8 +12950,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="52"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12945,8 +12960,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="52"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12955,8 +12970,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="52"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12965,8 +12980,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="52"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12975,8 +12990,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="52"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12985,8 +13000,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="52"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12995,8 +13010,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="52"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -13005,8 +13020,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="52"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -13015,8 +13030,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="52"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -13025,8 +13040,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -13077,215 +13092,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D66" s="52"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="64" t="s">
+      <c r="F66" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="52"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="22" t="s">
         <v>252</v>
       </c>
       <c r="F67" s="65"/>
-      <c r="G67" s="52"/>
+      <c r="G67" s="48"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="57"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F68" s="65"/>
-      <c r="G68" s="52"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="22" t="s">
         <v>254</v>
       </c>
       <c r="F69" s="65"/>
-      <c r="G69" s="52"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="D70" s="52"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="F70" s="72"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="48"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="57"/>
+      <c r="D71" s="61"/>
       <c r="E71" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="59"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="66"/>
-      <c r="G72" s="59"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="22"/>
       <c r="F73" s="65"/>
-      <c r="G73" s="52"/>
+      <c r="G73" s="48"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="57"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="22"/>
       <c r="F74" s="65"/>
-      <c r="G74" s="52"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="22"/>
       <c r="F75" s="65"/>
-      <c r="G75" s="52"/>
+      <c r="G75" s="48"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="57"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="29"/>
       <c r="F76" s="65"/>
-      <c r="G76" s="52"/>
+      <c r="G76" s="48"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="28"/>
       <c r="F77" s="65"/>
-      <c r="G77" s="52"/>
+      <c r="G77" s="48"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="28"/>
       <c r="F78" s="65"/>
-      <c r="G78" s="52"/>
+      <c r="G78" s="48"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
       <c r="E79" s="29"/>
       <c r="F79" s="65"/>
-      <c r="G79" s="52"/>
+      <c r="G79" s="48"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="61"/>
       <c r="E80" s="28"/>
       <c r="F80" s="65"/>
-      <c r="G80" s="52"/>
+      <c r="G80" s="48"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="28"/>
       <c r="F81" s="65"/>
-      <c r="G81" s="52"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="29"/>
       <c r="F82" s="65"/>
-      <c r="G82" s="52"/>
+      <c r="G82" s="48"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="57"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="61"/>
       <c r="E83" s="28"/>
       <c r="F83" s="65"/>
-      <c r="G83" s="52"/>
+      <c r="G83" s="48"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="28"/>
       <c r="F84" s="65"/>
-      <c r="G84" s="52"/>
+      <c r="G84" s="48"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14238,62 +14253,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -14304,8 +14263,64 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14317,7 +14332,7 @@
   </sheetPr>
   <dimension ref="A1:BK1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14584,10 +14599,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -14821,11 +14836,11 @@
       <c r="A3" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -16063,11 +16078,11 @@
       <c r="A8" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -16552,11 +16567,11 @@
       <c r="A10" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
@@ -18038,7 +18053,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <conditionalFormatting sqref="A4:F7 A9:F9 A11:F11 G3:BK11">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A3=TRUE</formula>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC4F1C-50B2-D54B-8D22-35393C5430CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F02E5F-C9FA-4344-AEA9-ECC0D29B3D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-20400" windowWidth="21600" windowHeight="38400" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t>寿司</t>
   </si>
   <si>
-    <t>料理長厳選の食材から作る寿司を用いたコースをぜひお楽しみください。食材・味・価格、お客様の満足度を徹底的に追及したお店です。特別な日のお食事、ビジネス接待まで気軽に使用することができます。</t>
-  </si>
-  <si>
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/sushi.jpg</t>
   </si>
   <si>
@@ -939,9 +936,6 @@
     <t>管理画面</t>
   </si>
   <si>
-    <t>ストレージ</t>
-  </si>
-  <si>
     <t>お店の画像をストレージに保存することができる</t>
   </si>
   <si>
@@ -1002,6 +996,14 @@
     <t>管理者と店舗代表者と利用者の3つの権限を作成する
 店舗代表者が店舗情報の作成、更新と予約情報の確認ができる管理画面を作成する
 管理者側は店舗代表者を作成できる管理画面を作成する</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>料理長厳選の食材から作る寿司を用いたコースをぜひお楽しみください。食材・味・価格、お客様の満足度を徹底的に追及したお店です。特別な日のお食事、ビジネス接待まで気軽に使用することができます。</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1364,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1472,58 +1474,53 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2950,12 +2947,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2974,40 +2971,40 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="77"/>
+        <v>271</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
-      <c r="B2" s="78"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>273</v>
+      <c r="B3" s="46" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>274</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>275</v>
       </c>
       <c r="C4" s="23" t="b">
         <v>1</v>
@@ -3015,10 +3012,10 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>277</v>
       </c>
       <c r="C5" s="23" t="b">
         <v>1</v>
@@ -3026,10 +3023,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>278</v>
+        <v>246</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="C6" s="23" t="b">
         <v>1</v>
@@ -3037,10 +3034,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>280</v>
       </c>
       <c r="C7" s="23" t="b">
         <v>0</v>
@@ -3048,24 +3045,24 @@
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>283</v>
+        <v>297</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="C9" s="23" t="b">
         <v>1</v>
@@ -3073,10 +3070,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3084,10 +3081,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3095,10 +3092,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3106,10 +3103,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
@@ -3117,10 +3114,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>295</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3128,10 +3125,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="C15" s="23" t="b">
         <v>0</v>
@@ -3139,10 +3136,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="C16" s="23" t="b">
         <v>0</v>
@@ -4157,146 +4154,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4328,7 +4325,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4338,7 +4335,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4380,7 +4377,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4390,7 +4387,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4411,8 +4408,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4421,33 +4418,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5426,6 +5423,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5442,14 +5447,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5463,8 +5460,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5505,151 +5502,151 @@
         <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>93</v>
@@ -5658,117 +5655,117 @@
         <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E12" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E13" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="E17" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>93</v>
@@ -5777,61 +5774,61 @@
         <v>94</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="E20" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6859,10 +6856,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6871,7 +6868,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -6879,58 +6876,58 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7957,176 +7954,176 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="24">
         <v>45047</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9137,81 +9134,81 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -9220,10 +9217,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -9238,91 +9235,91 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -9331,10 +9328,10 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -9343,10 +9340,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -9355,10 +9352,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -9370,91 +9367,91 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -9463,10 +9460,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -9478,65 +9475,65 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="C31" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -9545,10 +9542,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -9557,10 +9554,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -9569,10 +9566,10 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -9581,10 +9578,10 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -9596,65 +9593,65 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="C41" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="D41" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="E41" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="F41" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -9663,10 +9660,10 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -9675,10 +9672,10 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -9687,10 +9684,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -9699,10 +9696,10 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -9711,10 +9708,10 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -9723,10 +9720,10 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -9739,81 +9736,81 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="C53" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="D53" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="F53" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -9822,10 +9819,10 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -9837,81 +9834,81 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="C61" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="E61" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="F61" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -9920,10 +9917,10 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -9932,123 +9929,123 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="C68" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="D68" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="E68" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="F68" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -10057,10 +10054,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
@@ -10070,81 +10067,81 @@
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="C79" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="D79" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="E79" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="F79" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F80" s="22"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -10153,10 +10150,10 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -10168,77 +10165,77 @@
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="C89" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="D89" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="E89" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="F89" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -10247,10 +10244,10 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -10260,77 +10257,77 @@
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="C97" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="D97" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="E97" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="F97" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F98" s="22"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F99" s="22"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -10339,10 +10336,10 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
@@ -10353,81 +10350,81 @@
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="C106" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="D106" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="E106" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="F106" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F107" s="22"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -10436,10 +10433,10 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
@@ -10448,10 +10445,10 @@
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C112" s="30"/>
       <c r="D112" s="30"/>
@@ -10460,10 +10457,10 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="30"/>
@@ -12434,7 +12431,7 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -12447,22 +12444,22 @@
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>242</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12470,7 +12467,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="62"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -12490,7 +12487,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -12498,9 +12495,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="62"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -12508,9 +12505,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="61"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -12520,7 +12517,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="57"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -12528,9 +12525,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="59"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="60"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -12538,9 +12535,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="51"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="61"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -12550,7 +12547,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="57"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -12560,7 +12557,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -12570,7 +12567,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="51"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -12590,7 +12587,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="62"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -12600,7 +12597,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -12608,9 +12605,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="62"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="63"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -12618,9 +12615,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="51"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -12628,9 +12625,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="60"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -12638,9 +12635,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="51"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="61"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -12650,7 +12647,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="57"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -12678,9 +12675,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="59"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="60"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -12688,9 +12685,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="61"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -12700,7 +12697,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="57"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -12720,7 +12717,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="62"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -12730,7 +12727,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="51"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -12758,7 +12755,7 @@
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -12770,10 +12767,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="48"/>
+      <c r="C35" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="53"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -12782,10 +12779,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="48"/>
+      <c r="C36" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="53"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -12794,8 +12791,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="48"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -12804,8 +12801,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -12814,8 +12811,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -12824,8 +12821,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -12834,8 +12831,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -12844,8 +12841,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="48"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12854,8 +12851,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="48"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12874,7 +12871,7 @@
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -12886,10 +12883,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12898,10 +12895,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="48"/>
+      <c r="C47" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="53"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12910,8 +12907,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="48"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12920,8 +12917,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="48"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12930,8 +12927,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="48"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12940,8 +12937,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="48"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12950,8 +12947,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="48"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12960,8 +12957,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="48"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12970,8 +12967,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="48"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12980,8 +12977,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="48"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12990,8 +12987,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="48"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -13000,8 +12997,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="48"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -13010,8 +13007,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="48"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -13020,8 +13017,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="48"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -13030,8 +13027,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="48"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -13040,8 +13037,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="71"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -13080,7 +13077,7 @@
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -13092,215 +13089,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="53"/>
+      <c r="E66" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G66" s="48"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="56"/>
+      <c r="E67" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="48"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="53"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="61"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="48"/>
+        <v>252</v>
+      </c>
+      <c r="F68" s="66"/>
+      <c r="G68" s="53"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="57"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
       <c r="E69" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="65"/>
-      <c r="G69" s="48"/>
+        <v>253</v>
+      </c>
+      <c r="F69" s="66"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" s="53"/>
+      <c r="E70" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="48"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="53"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="61"/>
+      <c r="C71" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="58"/>
       <c r="E71" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="57"/>
+        <v>252</v>
+      </c>
+      <c r="F71" s="67"/>
+      <c r="G71" s="60"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="57"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="56"/>
-      <c r="G72" s="57"/>
+        <v>253</v>
+      </c>
+      <c r="F72" s="67"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="56"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="48"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="53"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="61"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="48"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="53"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="57"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="60"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="48"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="53"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="48"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="53"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="61"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="48"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="53"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="57"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="48"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="53"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="48"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="53"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="61"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="48"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="53"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="57"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="60"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="48"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="53"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="48"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="53"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="61"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="48"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="53"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="57"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="48"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="53"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14253,6 +14250,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -14263,62 +14316,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14332,7 +14329,7 @@
   </sheetPr>
   <dimension ref="A1:BK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14351,21 +14348,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="D1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="76" t="s">
         <v>260</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>261</v>
       </c>
       <c r="G1" s="36">
         <f>ターム内容!$B5</f>
@@ -14597,12 +14594,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -14833,14 +14830,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15075,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15326,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15577,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -15828,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -16075,14 +16072,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="48"/>
+      <c r="A8" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -16317,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -16564,14 +16561,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="A10" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
@@ -16806,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>ターム内容!$B7</f>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F02E5F-C9FA-4344-AEA9-ECC0D29B3D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615C86D-F63F-F948-A360-A883F5DDE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="308">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -340,9 +340,6 @@
     <t>画像URL</t>
   </si>
   <si>
-    <t>仙人</t>
-  </si>
-  <si>
     <t>東京都</t>
   </si>
   <si>
@@ -352,148 +349,34 @@
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/sushi.jpg</t>
   </si>
   <si>
-    <t>牛助</t>
-  </si>
-  <si>
     <t>大阪府</t>
   </si>
   <si>
     <t>焼肉</t>
   </si>
   <si>
-    <t>焼肉業界で20年間経験を積み、肉を熟知したマスターによる実力派焼肉店。長年の実績とお付き合いをもとに、なかなか食べられない希少部位も仕入れております。また、ゆったりとくつろげる空間はお仕事終わりの一杯や女子会にぴったりです。</t>
-  </si>
-  <si>
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/yakiniku.jpg</t>
   </si>
   <si>
-    <t>戦慄</t>
-  </si>
-  <si>
     <t>福岡県</t>
   </si>
   <si>
     <t>居酒屋</t>
   </si>
   <si>
-    <t>気軽に立ち寄れる昔懐かしの大衆居酒屋です。キンキンに冷えたビールを、なんと199円で。鳥かわ煮込み串は販売総数100000本突破の名物料理です。仕事帰りに是非御来店ください。</t>
-  </si>
-  <si>
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/izakaya.jpg</t>
   </si>
   <si>
-    <t>ルーク</t>
-  </si>
-  <si>
     <t>イタリアン</t>
   </si>
   <si>
-    <t>都心にひっそりとたたずむ、古民家を改築した落ち着いた空間です。イタリアで修業を重ねたシェフによるモダンなイタリア料理とソムリエセレクトによる厳選ワインとのペアリングが好評です。ゆっくりと上質な時間をお楽しみください。</t>
-  </si>
-  <si>
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/italian.jpg</t>
   </si>
   <si>
-    <t>志摩屋</t>
-  </si>
-  <si>
     <t>ラーメン</t>
   </si>
   <si>
-    <t>ラーメン屋とは思えない店内にはカウンター席はもちろん、個室も用意してあります。ラーメンはこってり系・あっさり系ともに揃っています。その他豊富な一品料理やアルコールも用意しており、居酒屋としても利用できます。ぜひご来店をお待ちしております。</t>
-  </si>
-  <si>
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/ramen.jpg</t>
-  </si>
-  <si>
-    <t>香</t>
-  </si>
-  <si>
-    <t>大小さまざまなお部屋をご用意してます。デートや接待、記念日や誕生日など特別な日にご利用ください。皆様のご来店をお待ちしております。</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>イタリア製ピザ窯芳ばしく焼き上げた極薄のミラノピッツァや厳選されたワインをお楽しみいただけます。女子会や男子会、記念日やお誕生日会にもオススメです。</t>
-  </si>
-  <si>
-    <t>らーめん極み</t>
-  </si>
-  <si>
-    <t>一杯、一杯心を込めて職人が作っております。味付けは少し濃いめです。 食べやすく最後の一滴まで美味しく飲めると好評です。</t>
-  </si>
-  <si>
-    <t>鳥雨</t>
-  </si>
-  <si>
-    <t>素材の旨味を存分に引き出す為に、塩焼を中心としたお店です。比内地鶏を中心に、厳選素材を職人が備長炭で豪快に焼き上げます。清潔な内装に包まれた大人の隠れ家で贅沢で優雅な時間をお過ごし下さい。</t>
-  </si>
-  <si>
-    <t>築地色合</t>
-  </si>
-  <si>
-    <t>鮨好きの方の為の鮨屋として、迫力ある大きさの握りを1貫ずつ提供致します。</t>
-  </si>
-  <si>
-    <t>晴海</t>
-  </si>
-  <si>
-    <t>毎年チャンピオン牛を買い付け、仙台市長から表彰されるほどの上質な仕入れをする精肉店オーナーの本当に美味しい国産牛を食べてもらいたいという思いから誕生したお店です。</t>
-  </si>
-  <si>
-    <t>三子</t>
-  </si>
-  <si>
-    <t>最高級の美味しいお肉で日々の疲れを軽減していただければと贅沢にサーロインを盛り込んだ御膳をご用意しております。</t>
-  </si>
-  <si>
-    <t>八戒</t>
-  </si>
-  <si>
-    <t>当店自慢の鍋や焼き鳥などお好きなだけ堪能できる食べ放題プランをご用意しております。飲み放題は2時間と3時間がございます。</t>
-  </si>
-  <si>
-    <t>福助</t>
-  </si>
-  <si>
-    <t>ミシュラン掲載店で磨いた、寿司職人の旨さへのこだわりはもちろん、 食事をゆっくりと楽しんでいただける空間作りも意識し続けております。 接待や大切なお食事にはぜひご利用ください。</t>
-  </si>
-  <si>
-    <t>ラー北</t>
-  </si>
-  <si>
-    <t>お昼にはランチを求められるサラリーマン、夕方から夜にかけては、学生や会社帰りのサラリーマン、小上がり席もありファミリー層にも大人気です。</t>
-  </si>
-  <si>
-    <t>翔</t>
-  </si>
-  <si>
-    <t>博多出身の店主自ら厳選した新鮮な旬の素材を使ったコース料理をご提供します。一人一人のお客様に目が届くようにしております。</t>
-  </si>
-  <si>
-    <t>経緯</t>
-  </si>
-  <si>
-    <t>職人が一つ一つ心を込めて丁寧に仕上げた、江戸前鮨ならではの味をお楽しみ頂けます。鮨に合った希少なお酒も数多くご用意しております。他にはない海鮮太巻き、当店自慢の蒸し鮑、是非ご賞味下さい。</t>
-  </si>
-  <si>
-    <t>漆</t>
-  </si>
-  <si>
-    <t>店内に一歩足を踏み入れると、肉の焼ける音と芳香が猛烈に食欲を掻き立ててくる。そんな漆で味わえるのは至極の焼き肉です。</t>
-  </si>
-  <si>
-    <t>THE TOOL</t>
-  </si>
-  <si>
-    <t>非日常的な空間で日頃の疲れを癒し、ゆったりとした上質な時間を過ごせる大人の為のレストラン&amp;バーです。</t>
-  </si>
-  <si>
-    <t>木船</t>
-  </si>
-  <si>
-    <t>毎日店主自ら市場等に出向き、厳選した魚介類が、お鮨をはじめとした繊細な料理に仕立てられます。また、選りすぐりの種類豊富なドリンクもご用意しております。</t>
   </si>
   <si>
     <t>参考UI</t>
@@ -1006,6 +889,198 @@
     <t>料理長厳選の食材から作る寿司を用いたコースをぜひお楽しみください。食材・味・価格、お客様の満足度を徹底的に追及したお店です。特別な日のお食事、ビジネス接待まで気軽に使用することができます。</t>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>東京都</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>寿司</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>牛助</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>焼肉</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>焼肉業界で20年間経験を積み、肉を熟知したマスターによる実力派焼肉店。長年の実績とお付き合いをもとに、なかなか食べられない希少部位も仕入れております。また、ゆったりとくつろげる空間はお仕事終わりの一杯や女子会にぴったりです。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>戦慄</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>福岡県</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>居酒屋</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>気軽に立ち寄れる昔懐かしの大衆居酒屋です。キンキンに冷えたビールを、なんと199円で。鳥かわ煮込み串は販売総数100000本突破の名物料理です。仕事帰りに是非御来店ください。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ルーク</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>仙人</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>イタリアン</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>都心にひっそりとたたずむ、古民家を改築した落ち着いた空間です。イタリアで修業を重ねたシェフによるモダンなイタリア料理とソムリエセレクトによる厳選ワインとのペアリングが好評です。ゆっくりと上質な時間をお楽しみください。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>志摩屋</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ラーメン</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ラーメン屋とは思えない店内にはカウンター席はもちろん、個室も用意してあります。ラーメンはこってり系・あっさり系ともに揃っています。その他豊富な一品料理やアルコールも用意しており、居酒屋としても利用できます。ぜひご来店をお待ちしております。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>香</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>大小さまざまなお部屋をご用意してます。デートや接待、記念日や誕生日など特別な日にご利用ください。皆様のご来店をお待ちしております。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>JJ</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>イタリア製ピザ窯芳ばしく焼き上げた極薄のミラノピッツァや厳選されたワインをお楽しみいただけます。女子会や男子会、記念日やお誕生日会にもオススメです。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>らーめん極み</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>一杯、一杯心を込めて職人が作っております。味付けは少し濃いめです。 食べやすく最後の一滴まで美味しく飲めると好評です。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>鳥雨</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>素材の旨味を存分に引き出す為に、塩焼を中心としたお店です。比内地鶏を中心に、厳選素材を職人が備長炭で豪快に焼き上げます。清潔な内装に包まれた大人の隠れ家で贅沢で優雅な時間をお過ごし下さい。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>築地色合</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>鮨好きの方の為の鮨屋として、迫力ある大きさの握りを1貫ずつ提供致します。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>晴海</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>毎年チャンピオン牛を買い付け、仙台市長から表彰されるほどの上質な仕入れをする精肉店オーナーの本当に美味しい国産牛を食べてもらいたいという思いから誕生したお店です。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>三子</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>最高級の美味しいお肉で日々の疲れを軽減していただければと贅沢にサーロインを盛り込んだ御膳をご用意しております。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>八戒</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>当店自慢の鍋や焼き鳥などお好きなだけ堪能できる食べ放題プランをご用意しております。飲み放題は2時間と3時間がございます。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>福助</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ミシュラン掲載店で磨いた、寿司職人の旨さへのこだわりはもちろん、 食事をゆっくりと楽しんでいただける空間作りも意識し続けております。 接待や大切なお食事にはぜひご利用ください。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ラー北</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>お昼にはランチを求められるサラリーマン、夕方から夜にかけては、学生や会社帰りのサラリーマン、小上がり席もありファミリー層にも大人気です。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>翔</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>博多出身の店主自ら厳選した新鮮な旬の素材を使ったコース料理をご提供します。一人一人のお客様に目が届くようにしております。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>経緯</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>職人が一つ一つ心を込めて丁寧に仕上げた、江戸前鮨ならではの味をお楽しみ頂けます。鮨に合った希少なお酒も数多くご用意しております。他にはない海鮮太巻き、当店自慢の蒸し鮑、是非ご賞味下さい。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>漆</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>店内に一歩足を踏み入れると、肉の焼ける音と芳香が猛烈に食欲を掻き立ててくる。そんな漆で味わえるのは至極の焼き肉です。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>THE TOOL</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>非日常的な空間で日頃の疲れを癒し、ゆったりとした上質な時間を過ごせる大人の為のレストラン&amp;バーです。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>木船</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>毎日店主自ら市場等に出向き、厳選した魚介類が、お鮨をはじめとした繊細な料理に仕立てられます。また、選りすぐりの種類豊富なドリンクもご用意しております。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/yakiniku.jpg</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
@@ -1015,7 +1090,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1129,6 +1204,14 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1363,10 +1446,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1475,6 +1559,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1522,7 +1609,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2947,12 +3035,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +3059,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2983,7 +3071,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="B1" s="33"/>
     </row>
@@ -2996,15 +3084,15 @@
         <v>23</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C4" s="23" t="b">
         <v>1</v>
@@ -3012,10 +3100,10 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C5" s="23" t="b">
         <v>1</v>
@@ -3023,10 +3111,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C6" s="23" t="b">
         <v>1</v>
@@ -3034,10 +3122,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C7" s="23" t="b">
         <v>0</v>
@@ -3045,24 +3133,24 @@
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C9" s="23" t="b">
         <v>1</v>
@@ -3070,10 +3158,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3081,10 +3169,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3092,10 +3180,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3103,10 +3191,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
@@ -3114,10 +3202,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3125,10 +3213,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C15" s="23" t="b">
         <v>0</v>
@@ -3136,10 +3224,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C16" s="23" t="b">
         <v>0</v>
@@ -4154,146 +4242,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="49" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4304,8 +4392,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4314,8 +4402,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4324,8 +4412,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4334,8 +4422,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4346,8 +4434,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4356,8 +4444,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4366,8 +4454,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4376,8 +4464,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4386,8 +4474,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4398,8 +4486,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4408,8 +4496,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4418,33 +4506,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5458,23 +5546,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="4" max="4" width="97.83203125" customWidth="1"/>
     <col min="5" max="5" width="68.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
@@ -5491,1325 +5579,346 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E17" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D21" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="17"/>
   <hyperlinks>
@@ -6856,10 +5965,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6868,7 +5977,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -6876,58 +5985,58 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7954,176 +7063,176 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B2" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B3" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B4" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B5" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B6" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="E9" s="24">
         <v>45047</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B10" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B11" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B12" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B13" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B14" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B15" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B16" s="23" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9134,81 +8243,81 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -9217,10 +8326,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -9235,91 +8344,91 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -9328,10 +8437,10 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -9340,10 +8449,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -9352,10 +8461,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -9367,91 +8476,91 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -9460,10 +8569,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -9475,65 +8584,65 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -9542,10 +8651,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -9554,10 +8663,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -9566,10 +8675,10 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -9578,10 +8687,10 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -9593,65 +8702,65 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -9660,10 +8769,10 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -9672,10 +8781,10 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -9684,10 +8793,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -9696,10 +8805,10 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -9708,10 +8817,10 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -9720,10 +8829,10 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -9736,81 +8845,81 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="25" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -9819,10 +8928,10 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -9834,81 +8943,81 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="25" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="31" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -9917,10 +9026,10 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -9929,123 +9038,123 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="22" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="22" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="22" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="22" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="30" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -10054,10 +9163,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="30" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
@@ -10067,81 +9176,81 @@
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="25" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="22" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F80" s="22"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="22" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="22" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -10150,10 +9259,10 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="22" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -10165,77 +9274,77 @@
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="27" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="27" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -10244,10 +9353,10 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="27" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -10257,77 +9366,77 @@
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="25" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F98" s="22"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F99" s="22"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -10336,10 +9445,10 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
@@ -10350,81 +9459,81 @@
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="25" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F107" s="22"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="22" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="27" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="27" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -10433,10 +9542,10 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="27" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
@@ -10445,10 +9554,10 @@
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="27" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C112" s="30"/>
       <c r="D112" s="30"/>
@@ -10457,10 +9566,10 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="30"/>
@@ -12431,7 +11540,7 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -12444,22 +11553,22 @@
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="26" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12467,7 +11576,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -12477,7 +11586,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -12487,7 +11596,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -12495,9 +11604,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="68"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="70"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -12505,9 +11614,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -12517,7 +11626,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -12525,9 +11634,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="71"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -12535,9 +11644,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -12547,7 +11656,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -12557,7 +11666,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -12567,7 +11676,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -12587,7 +11696,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="68"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -12597,7 +11706,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="49"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -12605,9 +11714,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="69"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -12615,9 +11724,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="60"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -12625,9 +11734,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -12635,9 +11744,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -12647,7 +11756,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="60"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -12675,9 +11784,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="72"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -12685,9 +11794,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -12697,7 +11806,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="60"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -12717,7 +11826,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="68"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -12727,7 +11836,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -12755,7 +11864,7 @@
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -12767,10 +11876,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="53"/>
+      <c r="C35" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="54"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -12779,10 +11888,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="53"/>
+      <c r="C36" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="54"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -12791,8 +11900,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="53"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -12801,8 +11910,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="53"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -12811,8 +11920,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="53"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -12821,8 +11930,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="53"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -12831,8 +11940,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="53"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -12841,8 +11950,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="53"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12851,8 +11960,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="53"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12871,7 +11980,7 @@
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -12883,10 +11992,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="53"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12895,10 +12004,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="53"/>
+      <c r="C47" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="54"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12907,8 +12016,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="53"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12917,8 +12026,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="53"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12927,8 +12036,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="53"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12937,8 +12046,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12947,8 +12056,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="53"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12957,8 +12066,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="53"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12967,8 +12076,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="53"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12977,8 +12086,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="53"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12987,8 +12096,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="53"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12997,8 +12106,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -13007,8 +12116,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="53"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -13017,8 +12126,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="53"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -13027,8 +12136,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="53"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -13037,8 +12146,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -13077,7 +12186,7 @@
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -13089,215 +12198,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="53"/>
+      <c r="C66" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="54"/>
       <c r="E66" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="G66" s="53"/>
+        <v>209</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="54"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D67" s="56"/>
+      <c r="C67" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="57"/>
       <c r="E67" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="53"/>
+        <v>212</v>
+      </c>
+      <c r="F67" s="67"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="53"/>
+        <v>213</v>
+      </c>
+      <c r="F68" s="67"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="53"/>
+        <v>214</v>
+      </c>
+      <c r="F69" s="67"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="53"/>
+      <c r="C70" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="54"/>
       <c r="E70" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F70" s="73"/>
-      <c r="G70" s="53"/>
+        <v>216</v>
+      </c>
+      <c r="F70" s="74"/>
+      <c r="G70" s="54"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" s="58"/>
+      <c r="C71" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="59"/>
       <c r="E71" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F71" s="67"/>
-      <c r="G71" s="60"/>
+        <v>213</v>
+      </c>
+      <c r="F71" s="68"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="60"/>
+        <v>214</v>
+      </c>
+      <c r="F72" s="68"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="53"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="53"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="53"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="53"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="54"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="53"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="54"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="53"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="54"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="53"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="54"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="53"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="54"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="61"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="53"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="53"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="53"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="53"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14333,7 +13442,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14348,21 +13457,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="76" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>260</v>
+      <c r="E1" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>221</v>
       </c>
       <c r="G1" s="36">
         <f>ターム内容!$B5</f>
@@ -14594,12 +13703,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -14830,14 +13939,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15072,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15323,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15574,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -15825,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -16072,14 +15181,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="A8" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -16314,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -16561,14 +15670,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
@@ -16803,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>ターム内容!$B7</f>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615C86D-F63F-F948-A360-A883F5DDE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0933E28-343D-524F-888E-9BCFBEBE645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="310">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -1079,6 +1079,14 @@
   </si>
   <si>
     <t>https://coachtech-matter.s3-ap-northeast-1.amazonaws.com/image/yakiniku.jpg</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>エリアで検索する</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1215,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,6 +1258,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
         <bgColor rgb="FF434343"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1450,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1562,52 +1576,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3059,7 +3079,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3146,13 +3166,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="23" t="b">
+      <c r="C9" s="80" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3212,24 +3232,24 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="23" t="b">
+      <c r="C15" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="23" t="b">
+      <c r="C16" s="80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4242,146 +4262,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="51" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4392,8 +4412,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4402,8 +4422,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4412,8 +4432,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4422,8 +4442,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4434,8 +4454,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4444,8 +4464,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4454,8 +4474,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4464,8 +4484,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4474,8 +4494,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4486,8 +4506,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4496,8 +4516,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4506,33 +4526,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5511,14 +5531,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5535,6 +5547,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5548,7 +5568,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7045,7 +7065,9 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7073,35 +7095,38 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="23" t="b">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="23" t="b">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="79" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7123,7 +7148,7 @@
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="82" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7134,7 +7159,7 @@
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="82" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7145,7 +7170,7 @@
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="82" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="24">
@@ -7203,10 +7228,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="23" t="b">
+      <c r="A14" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="80" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -7214,10 +7239,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="23" t="b">
+      <c r="B15" s="80" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -7225,10 +7250,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="23" t="b">
+      <c r="B16" s="80" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -11576,7 +11601,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="69"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11586,7 +11611,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11596,7 +11621,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11604,9 +11629,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="69"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="71"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11614,9 +11639,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="59"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11626,7 +11651,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="61"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11634,9 +11659,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="73"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11644,9 +11669,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="50"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="59"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11656,7 +11681,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="61"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11666,7 +11691,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="72"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11676,7 +11701,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11696,7 +11721,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="69"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11706,7 +11731,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="50"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11714,9 +11739,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="69"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11724,9 +11749,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="50"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="61"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11734,9 +11759,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="73"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11744,9 +11769,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="50"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="59"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11756,7 +11781,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="61"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11784,9 +11809,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="72"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="73"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11794,9 +11819,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="50"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="59"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11806,7 +11831,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="61"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11826,7 +11851,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11836,7 +11861,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="50"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11876,10 +11901,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="54"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11888,10 +11913,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11900,8 +11925,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11910,8 +11935,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="54"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11920,8 +11945,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11930,8 +11955,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="54"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11940,8 +11965,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11950,8 +11975,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11960,8 +11985,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -11992,10 +12017,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12004,10 +12029,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12016,8 +12041,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="54"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12026,8 +12051,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="54"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12036,8 +12061,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="54"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12046,8 +12071,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="54"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12056,8 +12081,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="54"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12066,8 +12091,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="54"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12076,8 +12101,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="54"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12086,8 +12111,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="54"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12096,8 +12121,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="54"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12106,8 +12131,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="54"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12116,8 +12141,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12126,8 +12151,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="54"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12136,8 +12161,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="54"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12146,8 +12171,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="64"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12198,215 +12223,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="54"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="65" t="s">
+      <c r="F66" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="54"/>
+      <c r="G66" s="50"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="57"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="54"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="67"/>
-      <c r="G68" s="54"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="67"/>
-      <c r="G69" s="54"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="54"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="74"/>
-      <c r="G70" s="54"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="59"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F71" s="68"/>
-      <c r="G71" s="61"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="68"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="59"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="57"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="50"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="54"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="50"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="59"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="59"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="54"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="54"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="50"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="54"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="50"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="57"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="69"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="54"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="54"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="50"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="69"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="54"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="50"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="64"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="54"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="50"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="54"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="50"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13359,62 +13384,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13425,6 +13394,62 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13705,10 +13730,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13942,11 +13967,11 @@
       <c r="A3" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15184,11 +15209,11 @@
       <c r="A8" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15673,11 +15698,11 @@
       <c r="A10" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0933E28-343D-524F-888E-9BCFBEBE645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B631F0-BB38-4347-8F6D-9B44C2851C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="311">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -1087,6 +1087,10 @@
   </si>
   <si>
     <t>エリアで検索する</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>バリデーション</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1576,58 +1580,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3078,8 +3082,8 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3130,13 +3134,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="23" t="b">
+      <c r="C6" s="50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3166,13 +3170,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="80" t="b">
+      <c r="C9" s="50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3232,24 +3236,24 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="80" t="b">
+      <c r="C15" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="80" t="b">
+      <c r="C16" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4262,146 +4266,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4412,8 +4416,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4422,8 +4426,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4432,8 +4436,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4442,8 +4446,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4454,8 +4458,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4464,8 +4468,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4474,8 +4478,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4484,8 +4488,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4494,8 +4498,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="53" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4506,8 +4510,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4516,8 +4520,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4526,33 +4530,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="49" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5531,6 +5535,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5547,14 +5559,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7065,7 +7069,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -7095,38 +7099,38 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="80" t="b">
+      <c r="B3" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="79" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="80" t="b">
+      <c r="B4" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="80" t="b">
+      <c r="B5" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="79" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7148,7 +7152,7 @@
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7159,7 +7163,7 @@
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="52" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7170,7 +7174,7 @@
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="52" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="24">
@@ -7228,10 +7232,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="80" t="b">
+      <c r="B14" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -7239,10 +7243,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="80" t="b">
+      <c r="B15" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -7250,10 +7254,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="80" t="b">
+      <c r="B16" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -11601,7 +11605,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="65"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11611,7 +11615,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="52"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11621,7 +11625,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="53"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11629,9 +11633,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="65"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="67"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11639,9 +11643,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11651,7 +11655,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11659,9 +11663,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="62"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11669,9 +11673,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11681,7 +11685,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11691,7 +11695,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="62"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11701,7 +11705,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11721,7 +11725,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="65"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11731,7 +11735,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="53"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11739,9 +11743,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="66"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11749,9 +11753,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="59"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11759,9 +11763,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="62"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="63"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11769,9 +11773,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="64"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11781,7 +11785,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="59"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11809,9 +11813,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="62"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="63"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11819,9 +11823,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="64"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11831,7 +11835,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="59"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11851,7 +11855,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="65"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11861,7 +11865,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11901,10 +11905,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11913,10 +11917,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="50"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11925,8 +11929,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11935,8 +11939,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11945,8 +11949,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11955,8 +11959,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="50"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11965,8 +11969,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="50"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11975,8 +11979,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11985,8 +11989,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="50"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12017,10 +12021,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12029,10 +12033,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12041,8 +12045,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12051,8 +12055,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="50"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12061,8 +12065,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12071,8 +12075,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12081,8 +12085,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="50"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12091,8 +12095,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="50"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12101,8 +12105,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12111,8 +12115,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="50"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12121,8 +12125,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12131,8 +12135,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12141,8 +12145,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12151,8 +12155,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12161,8 +12165,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12171,8 +12175,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12223,215 +12227,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="50"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="50"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="69"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="61"/>
-      <c r="G67" s="50"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="64"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="61"/>
-      <c r="G68" s="50"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="61"/>
-      <c r="G69" s="50"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="50"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="57"/>
-      <c r="G70" s="50"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="64"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="59"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="59"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="59"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="61"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="50"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="64"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="50"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="59"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="50"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="58"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="64"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="50"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="58"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="64"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="50"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="58"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="50"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="69"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="50"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="64"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="50"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="59"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="50"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="69"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="61"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="50"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="64"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="63"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="50"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="58"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="50"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13384,6 +13388,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13394,62 +13454,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13482,20 +13486,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="81" t="s">
         <v>221</v>
       </c>
       <c r="G1" s="36">
@@ -13728,12 +13732,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13964,14 +13968,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15206,14 +15210,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15695,14 +15699,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B631F0-BB38-4347-8F6D-9B44C2851C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB2931F-8A4E-4B4B-9DC7-C24DD770BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="313">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -1093,6 +1093,14 @@
     <t>バリデーション</t>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>飲食店予約情報追加</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
@@ -1102,7 +1110,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1222,6 +1230,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1468,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1632,6 +1647,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3082,7 +3098,7 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5978,7 +5994,9 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7067,10 +7085,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7141,7 +7159,7 @@
       <c r="B6" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7157,10 +7175,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="23" t="b">
+      <c r="B8" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -7168,10 +7186,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="23" t="b">
+      <c r="B9" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
@@ -7191,7 +7209,7 @@
       <c r="B10" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="49" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7210,10 +7228,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="23" t="b">
+      <c r="A12" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -7264,22 +7282,26 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB2931F-8A4E-4B4B-9DC7-C24DD770BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BBEA2-637D-8C41-94EB-0910FEA67E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="312">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -476,9 +476,6 @@
   </si>
   <si>
     <t>飲食店予約情報削除</t>
-  </si>
-  <si>
-    <t>理想ライン</t>
   </si>
   <si>
     <t>例）testsテーブル</t>
@@ -1483,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1601,53 +1598,55 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3075,12 +3074,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3098,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3111,7 +3110,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="33"/>
     </row>
@@ -3124,15 +3123,15 @@
         <v>23</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="C4" s="23" t="b">
         <v>1</v>
@@ -3140,32 +3139,32 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="C5" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="50" t="b">
+      <c r="A6" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="85" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="C7" s="23" t="b">
         <v>0</v>
@@ -3173,10 +3172,10 @@
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>0</v>
@@ -3187,10 +3186,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="50" t="b">
         <v>1</v>
@@ -3198,10 +3197,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3209,10 +3208,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3220,10 +3219,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3231,10 +3230,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
@@ -3242,10 +3241,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3253,10 +3252,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>252</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>253</v>
       </c>
       <c r="C15" s="50" t="b">
         <v>0</v>
@@ -3264,10 +3263,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>254</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>255</v>
       </c>
       <c r="C16" s="50" t="b">
         <v>0</v>
@@ -4282,146 +4281,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4432,8 +4431,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4441,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4452,8 +4451,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4462,8 +4461,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="56" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4474,8 +4473,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4484,8 +4483,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4494,8 +4493,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4504,8 +4503,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4514,8 +4513,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4526,8 +4525,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4536,8 +4535,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4546,33 +4545,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5551,14 +5550,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5575,6 +5566,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5621,16 +5620,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5638,16 +5637,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5655,16 +5654,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5672,16 +5671,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5689,16 +5688,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5706,7 +5705,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5715,15 +5714,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5732,7 +5731,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5740,7 +5739,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5749,7 +5748,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5757,7 +5756,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5766,7 +5765,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5774,7 +5773,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5783,7 +5782,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5791,7 +5790,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5800,7 +5799,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5808,7 +5807,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5817,7 +5816,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5825,7 +5824,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5834,7 +5833,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5842,7 +5841,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5851,7 +5850,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5859,7 +5858,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5868,7 +5867,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -5876,16 +5875,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -5893,16 +5892,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -5910,7 +5909,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -5919,7 +5918,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -5927,7 +5926,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -5936,7 +5935,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -5944,7 +5943,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -5953,7 +5952,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -5994,7 +5993,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -7087,8 +7086,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7106,19 +7105,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="23" t="b">
+      <c r="B2" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" s="50" t="b">
         <v>1</v>
@@ -7151,6 +7151,7 @@
       <c r="D5" s="49" t="s">
         <v>126</v>
       </c>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
@@ -7195,12 +7196,8 @@
       <c r="D9" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="24">
-        <v>45047</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
@@ -7223,13 +7220,11 @@
       <c r="D11" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>138</v>
-      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="50" t="b">
         <v>1</v>
@@ -7251,7 +7246,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="50" t="b">
         <v>1</v>
@@ -7287,8 +7282,8 @@
     <row r="19" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H21" s="83" t="s">
-        <v>312</v>
+      <c r="H21" s="53" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8294,81 +8289,81 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -8377,10 +8372,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -8395,91 +8390,91 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>155</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>156</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -8488,10 +8483,10 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -8500,10 +8495,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -8512,10 +8507,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -8527,91 +8522,91 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -8620,10 +8615,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -8635,65 +8630,65 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="C31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -8702,10 +8697,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -8714,10 +8709,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -8726,10 +8721,10 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -8738,10 +8733,10 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -8753,65 +8748,65 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="C41" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="D41" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="E41" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="F41" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -8820,10 +8815,10 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -8832,10 +8827,10 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -8844,10 +8839,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -8856,10 +8851,10 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -8868,10 +8863,10 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -8880,10 +8875,10 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -8896,81 +8891,81 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="C53" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="D53" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="F53" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -8979,10 +8974,10 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -8994,81 +8989,81 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="C61" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="E61" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="F61" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -9077,10 +9072,10 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -9089,123 +9084,123 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="C68" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="D68" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="E68" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="F68" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -9214,10 +9209,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
@@ -9227,81 +9222,81 @@
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="C79" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="D79" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="E79" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="F79" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80" s="22"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -9310,10 +9305,10 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -9325,77 +9320,77 @@
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="C89" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="D89" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="E89" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="F89" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -9404,10 +9399,10 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -9417,77 +9412,77 @@
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="C97" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="D97" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="E97" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="F97" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98" s="22"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F99" s="22"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -9496,10 +9491,10 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
@@ -9510,81 +9505,81 @@
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="C106" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="D106" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="E106" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="F106" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F107" s="22"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -9593,10 +9588,10 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
@@ -9605,10 +9600,10 @@
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" s="30"/>
       <c r="D112" s="30"/>
@@ -9617,10 +9612,10 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="30"/>
@@ -11591,7 +11586,7 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -11607,19 +11602,19 @@
         <v>107</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>202</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11627,7 +11622,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="73"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11637,7 +11632,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="55"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11647,7 +11642,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="54"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11655,9 +11650,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="73"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="75"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11665,9 +11660,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="54"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11677,7 +11672,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="65"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11685,9 +11680,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="76"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11695,9 +11690,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11707,7 +11702,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="65"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11717,7 +11712,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11727,7 +11722,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="54"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11747,7 +11742,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="73"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11757,7 +11752,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="54"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11765,9 +11760,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="73"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="74"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11775,9 +11770,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="54"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="65"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11785,9 +11780,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="76"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11795,9 +11790,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="54"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="63"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11807,7 +11802,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11835,9 +11830,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="77"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11845,9 +11840,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="63"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11857,7 +11852,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="65"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11877,7 +11872,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="73"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11887,7 +11882,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="54"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11915,7 +11910,7 @@
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -11927,10 +11922,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="58"/>
+      <c r="C35" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="55"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11939,10 +11934,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="58"/>
+      <c r="C36" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="55"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11951,8 +11946,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11961,8 +11956,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="58"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11971,8 +11966,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11981,8 +11976,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11991,8 +11986,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -12001,8 +11996,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12011,8 +12006,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12031,7 +12026,7 @@
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -12043,10 +12038,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="58"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12055,10 +12050,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="58"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12067,8 +12062,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="58"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12077,8 +12072,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12087,8 +12082,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12097,8 +12092,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="58"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12107,8 +12102,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12117,8 +12112,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12127,8 +12122,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12137,8 +12132,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="58"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12147,8 +12142,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12157,8 +12152,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12167,8 +12162,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12177,8 +12172,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12187,8 +12182,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12197,8 +12192,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12237,7 +12232,7 @@
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -12249,215 +12244,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="55"/>
+      <c r="E66" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="G66" s="58"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="74"/>
+      <c r="E67" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="58"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="58"/>
+        <v>212</v>
+      </c>
+      <c r="F68" s="66"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="58"/>
+        <v>213</v>
+      </c>
+      <c r="F69" s="66"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="55"/>
+      <c r="E70" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="58"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D71" s="63"/>
+      <c r="C71" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="69"/>
       <c r="E71" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" s="72"/>
-      <c r="G71" s="65"/>
+        <v>212</v>
+      </c>
+      <c r="F71" s="63"/>
+      <c r="G71" s="64"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="72"/>
-      <c r="G72" s="65"/>
+        <v>213</v>
+      </c>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="58"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="58"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="64"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="58"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="63"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="58"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="58"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="58"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="58"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="58"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="65"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="58"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="58"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="63"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="58"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="58"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13410,62 +13405,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13476,6 +13415,62 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13508,21 +13503,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="82" t="s">
         <v>220</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>221</v>
       </c>
       <c r="G1" s="36">
         <f>ターム内容!$B5</f>
@@ -13754,12 +13749,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13990,14 +13985,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -14232,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -14483,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -14734,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -14985,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -15232,14 +15227,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="A8" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15474,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15721,14 +15716,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
@@ -15963,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>ターム内容!$B7</f>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BBEA2-637D-8C41-94EB-0910FEA67E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F6678-17EF-6A4F-9950-C5E3F51786EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1599,54 +1599,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3149,13 +3147,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="85" t="b">
+      <c r="C6" s="23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4281,146 +4279,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="54" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4431,8 +4429,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4439,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4451,8 +4449,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4461,8 +4459,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4473,8 +4471,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4483,8 +4481,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4493,8 +4491,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4503,8 +4501,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4513,8 +4511,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="54" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4525,8 +4523,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4535,8 +4533,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4545,33 +4543,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5550,6 +5548,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5566,14 +5572,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7087,7 +7085,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7234,10 +7232,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="23" t="b">
+      <c r="B13" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -11622,7 +11620,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="70"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11632,7 +11630,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11642,7 +11640,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11650,9 +11648,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="70"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="72"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11660,9 +11658,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="58"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="69"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11672,7 +11670,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11680,9 +11678,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="67"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11690,9 +11688,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11702,7 +11700,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11712,7 +11710,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="67"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11722,7 +11720,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="58"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11742,7 +11740,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11752,7 +11750,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="58"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11760,9 +11758,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11770,9 +11768,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="58"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="64"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11780,9 +11778,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="67"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11790,9 +11788,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="58"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11802,7 +11800,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="64"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11830,9 +11828,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11840,9 +11838,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="69"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11852,7 +11850,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="64"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11872,7 +11870,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="70"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11882,7 +11880,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="58"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11922,10 +11920,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11934,10 +11932,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11946,8 +11944,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11956,8 +11954,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="55"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11966,8 +11964,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11976,8 +11974,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11986,8 +11984,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11996,8 +11994,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="55"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12006,8 +12004,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="55"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12038,10 +12036,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12050,10 +12048,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12062,8 +12060,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12072,8 +12070,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="55"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12082,8 +12080,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="55"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12092,8 +12090,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12102,8 +12100,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="55"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12112,8 +12110,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="55"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12122,8 +12120,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="55"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12132,8 +12130,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="55"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12142,8 +12140,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="55"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12152,8 +12150,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="55"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12162,8 +12160,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12172,8 +12170,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="55"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12182,8 +12180,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="55"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12192,8 +12190,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12244,215 +12242,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="55"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="65" t="s">
+      <c r="F66" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="G66" s="55"/>
+      <c r="G66" s="59"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="74"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="69"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="55"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="59"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="64"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="59"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="55"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="59"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="69"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="64"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="66"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="64"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="66"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="62"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="69"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="55"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="64"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="66"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="69"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="55"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="59"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="69"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="55"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="59"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="55"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="59"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="74"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="62"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="55"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="59"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="69"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="55"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="59"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="64"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="66"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="74"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="55"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="59"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="69"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="64"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="64"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="55"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="59"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13405,6 +13403,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13415,62 +13469,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13751,10 +13749,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13988,11 +13986,11 @@
       <c r="A3" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15230,11 +15228,11 @@
       <c r="A8" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15719,11 +15717,11 @@
       <c r="A10" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F6678-17EF-6A4F-9950-C5E3F51786EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895FA26-CA50-AE46-9E3D-90EBEE53D82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -5991,8 +5991,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7084,8 +7084,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7198,10 +7198,10 @@
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="23" t="b">
+      <c r="B10" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="49" t="s">
@@ -7209,13 +7209,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="23" t="b">
+      <c r="B11" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="49" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="23"/>
@@ -7227,7 +7227,7 @@
       <c r="B12" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
       <c r="B13" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="49" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8276,7 +8276,7 @@
   </sheetPr>
   <dimension ref="A1:F1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="59" zoomScaleNormal="59" workbookViewId="0"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895FA26-CA50-AE46-9E3D-90EBEE53D82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C167CD6-4268-BB42-BBB2-163F1A3FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -1599,46 +1599,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3095,8 +3095,8 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3147,13 +3147,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="23" t="b">
+      <c r="C6" s="50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4279,146 +4279,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4439,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4449,8 +4449,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4459,8 +4459,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="56" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4471,8 +4471,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4481,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4501,8 +4501,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4511,8 +4511,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="54" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4523,8 +4523,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4533,8 +4533,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4543,33 +4543,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5548,14 +5548,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5572,6 +5564,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5991,7 +5991,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11620,7 +11620,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="74"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11630,7 +11630,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="56"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11640,7 +11640,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11648,9 +11648,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="74"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="76"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11658,9 +11658,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="55"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11670,7 +11670,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11678,9 +11678,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="78"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11688,9 +11688,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="55"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11700,7 +11700,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="66"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11710,7 +11710,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="77"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11720,7 +11720,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="55"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11740,7 +11740,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="74"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11750,7 +11750,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="55"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11758,9 +11758,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="74"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11768,9 +11768,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="66"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11778,9 +11778,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="77"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="78"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11788,9 +11788,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="55"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="64"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11800,7 +11800,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="66"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11828,9 +11828,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="77"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="78"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11838,9 +11838,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="55"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="64"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11850,7 +11850,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="66"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11870,7 +11870,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="74"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11880,7 +11880,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="55"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11920,10 +11920,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11932,10 +11932,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11944,8 +11944,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11954,8 +11954,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11964,8 +11964,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11974,8 +11974,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="59"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11984,8 +11984,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11994,8 +11994,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12004,8 +12004,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12036,10 +12036,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12048,10 +12048,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="59"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12060,8 +12060,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="59"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12070,8 +12070,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="59"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12080,8 +12080,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="59"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12090,8 +12090,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="59"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12100,8 +12100,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="59"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12110,8 +12110,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="59"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12120,8 +12120,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12130,8 +12130,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="59"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12140,8 +12140,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="59"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12150,8 +12150,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="59"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12160,8 +12160,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12170,8 +12170,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="59"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12180,8 +12180,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="59"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12190,8 +12190,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12242,215 +12242,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="59"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F66" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="G66" s="59"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="62"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="72"/>
-      <c r="G67" s="59"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="72"/>
-      <c r="G68" s="59"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="66"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="72"/>
-      <c r="G69" s="59"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="67" t="s">
+      <c r="C70" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="59"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="59"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="64"/>
+      <c r="D71" s="69"/>
       <c r="E71" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F71" s="73"/>
-      <c r="G71" s="66"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="64"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="66"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="62"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="59"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="64"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="59"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="66"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="64"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="59"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="64"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="59"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="64"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="59"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="66"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="59"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="62"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="59"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="64"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="59"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="66"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="59"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="59"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="64"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="59"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="66"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="59"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13403,62 +13403,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13469,6 +13413,62 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13749,10 +13749,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13986,11 +13986,11 @@
       <c r="A3" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15228,11 +15228,11 @@
       <c r="A8" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15717,11 +15717,11 @@
       <c r="A10" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C167CD6-4268-BB42-BBB2-163F1A3FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EEF17-4688-1B4E-9F9E-01DDFA84AB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,6 +1279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1645,6 +1651,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3096,7 +3104,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3125,13 +3133,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="23" t="b">
+      <c r="C4" s="50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3158,13 +3166,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="23" t="b">
+      <c r="C7" s="85" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EEF17-4688-1B4E-9F9E-01DDFA84AB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5635AF-9665-074B-B9C1-81260FA0CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -3103,8 +3103,8 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7092,8 +7092,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7160,10 +7160,10 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="23" t="b">
+      <c r="B6" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="49" t="s">
@@ -7171,10 +7171,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="23" t="b">
+      <c r="B7" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="52" t="s">
@@ -7257,7 +7257,7 @@
       <c r="B14" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
       <c r="B15" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       <c r="B16" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -13491,7 +13491,7 @@
   <dimension ref="A1:BK1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5635AF-9665-074B-B9C1-81260FA0CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5FE8B8-978A-EB43-8B18-6F5C2B72FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -796,9 +796,6 @@
     <t>予約日時または予約人数をマイページから変更することができる</t>
   </si>
   <si>
-    <t>評価機能</t>
-  </si>
-  <si>
     <t>予約したお店に来店した後に、利用者が店舗を5段階評価とコメントができるようにする</t>
   </si>
   <si>
@@ -1096,6 +1093,10 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>評価機能</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1605,54 +1606,54 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3103,8 +3104,8 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3144,44 +3145,44 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="23" t="b">
+      <c r="C5" s="50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="85" t="b">
+      <c r="C7" s="55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>0</v>
@@ -3192,10 +3193,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="50" t="b">
         <v>1</v>
@@ -3203,10 +3204,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3214,10 +3215,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3225,10 +3226,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3236,10 +3237,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
@@ -3247,10 +3248,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3258,10 +3259,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>251</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>252</v>
       </c>
       <c r="C15" s="50" t="b">
         <v>0</v>
@@ -3269,10 +3270,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>253</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>254</v>
       </c>
       <c r="C16" s="50" t="b">
         <v>0</v>
@@ -4291,7 +4292,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="60"/>
-      <c r="C1" s="55"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
@@ -4300,60 +4301,60 @@
       <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
@@ -4362,20 +4363,20 @@
       <c r="A8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
@@ -4384,30 +4385,30 @@
       <c r="A10" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
@@ -4416,16 +4417,16 @@
       <c r="A13" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="56" t="s">
         <v>53</v>
       </c>
@@ -4437,8 +4438,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4447,8 +4448,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4457,8 +4458,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4467,7 +4468,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="56" t="s">
         <v>62</v>
       </c>
@@ -4479,8 +4480,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4489,8 +4490,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4499,8 +4500,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4509,8 +4510,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4519,7 +4520,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="56" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4532,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4541,8 +4542,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4554,30 +4555,30 @@
       <c r="A26" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5556,6 +5557,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5572,14 +5581,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5626,16 +5627,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5643,16 +5644,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5660,16 +5661,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5677,16 +5678,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5694,16 +5695,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5711,7 +5712,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5720,15 +5721,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5737,7 +5738,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5745,7 +5746,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5754,7 +5755,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5762,7 +5763,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5771,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5779,7 +5780,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5788,7 +5789,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5796,7 +5797,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5805,7 +5806,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5813,7 +5814,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5822,7 +5823,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5830,7 +5831,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5839,7 +5840,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5847,7 +5848,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5856,7 +5857,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5864,7 +5865,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5873,7 +5874,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -5881,16 +5882,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -5898,16 +5899,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -5915,7 +5916,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -5924,7 +5925,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -5932,7 +5933,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -5941,7 +5942,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -5949,7 +5950,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -5958,7 +5959,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7092,7 +7093,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -7124,7 +7125,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="50" t="b">
         <v>1</v>
@@ -7230,7 +7231,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="50" t="b">
         <v>1</v>
@@ -7252,7 +7253,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="50" t="b">
         <v>1</v>
@@ -7289,7 +7290,7 @@
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11628,7 +11629,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="70"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11638,7 +11639,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11648,7 +11649,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11656,9 +11657,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="70"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="72"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11666,9 +11667,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="58"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="69"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11678,7 +11679,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11686,9 +11687,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="67"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11696,9 +11697,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11708,7 +11709,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11718,7 +11719,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="67"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11728,7 +11729,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="58"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11748,7 +11749,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11758,7 +11759,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="58"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11766,9 +11767,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11776,9 +11777,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="58"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="64"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11786,9 +11787,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="67"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11796,9 +11797,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="58"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11808,7 +11809,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="64"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11836,9 +11837,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11846,9 +11847,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="69"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11858,7 +11859,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="64"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11878,7 +11879,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="70"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11888,7 +11889,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="58"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11928,10 +11929,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11940,10 +11941,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11952,8 +11953,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11962,8 +11963,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="55"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11972,8 +11973,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11982,8 +11983,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11992,8 +11993,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -12002,8 +12003,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="55"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12012,8 +12013,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="55"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12044,10 +12045,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12056,10 +12057,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12068,8 +12069,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12078,8 +12079,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="55"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12088,8 +12089,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="55"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12098,8 +12099,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12108,8 +12109,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="55"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12118,8 +12119,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="55"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12128,8 +12129,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="55"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12138,8 +12139,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="55"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12148,8 +12149,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="55"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12158,8 +12159,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="55"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12168,8 +12169,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12178,8 +12179,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="55"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12188,8 +12189,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="55"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12198,8 +12199,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12250,215 +12251,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="55"/>
+      <c r="D66" s="61"/>
       <c r="E66" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="65" t="s">
+      <c r="F66" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="G66" s="55"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="74"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="61"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="69"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="55"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="64"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="61"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="61"/>
       <c r="E70" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="55"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="69"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="64"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="64"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="64"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="61"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="69"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="66"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="55"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="64"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="69"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="66"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="55"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="69"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="55"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="61"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="64"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="55"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="74"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="55"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="61"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="69"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="55"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="61"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="64"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="74"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="64"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="55"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="61"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="69"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="64"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="55"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13411,6 +13412,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13421,62 +13478,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13509,20 +13510,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="84" t="s">
         <v>220</v>
       </c>
       <c r="G1" s="36">
@@ -13755,12 +13756,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13991,14 +13992,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>221</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="55"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -15233,14 +15234,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="82" t="s">
         <v>226</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15722,14 +15723,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5FE8B8-978A-EB43-8B18-6F5C2B72FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DB595-0987-4E4D-9ECE-929AE5FCFB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="310">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -478,9 +478,6 @@
     <t>飲食店予約情報削除</t>
   </si>
   <si>
-    <t>例）testsテーブル</t>
-  </si>
-  <si>
     <t>カラム名</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>users(id)</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -571,48 +565,9 @@
     <t>shops(id)</t>
   </si>
   <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>osaka</t>
-  </si>
-  <si>
-    <t>hukuoka</t>
-  </si>
-  <si>
     <t>genresテーブル</t>
   </si>
   <si>
-    <t>sushi</t>
-  </si>
-  <si>
-    <t>yakiniku</t>
-  </si>
-  <si>
-    <t>ramen</t>
-  </si>
-  <si>
-    <t>itarian</t>
-  </si>
-  <si>
-    <t>izakaya</t>
-  </si>
-  <si>
-    <t>shops_areasテーブル</t>
-  </si>
-  <si>
-    <t>area_id</t>
-  </si>
-  <si>
-    <t>areas(id)</t>
-  </si>
-  <si>
-    <t>genre_id</t>
-  </si>
-  <si>
-    <t>genres(id)</t>
-  </si>
-  <si>
     <t>reservesテーブル</t>
   </si>
   <si>
@@ -631,19 +586,7 @@
     <t>favoritesテーブル</t>
   </si>
   <si>
-    <t>adminsテーブル</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>owners_reservationsテーブル</t>
-  </si>
-  <si>
     <t>reviewsテーブル</t>
-  </si>
-  <si>
-    <t>user(id)</t>
   </si>
   <si>
     <t>shop(id)</t>
@@ -1097,6 +1040,74 @@
   </si>
   <si>
     <t>評価機能</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>roles(id)</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>rolesテーブル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ganre</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>timestamps</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>area_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ganre_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>area(id)</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ganre(id)</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>stateus_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>status(id)</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>statusテーブル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1290,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1482,12 +1493,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1608,52 +1634,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1709,6 +1740,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64BFD24-FFC6-C8D4-5E70-98DE7D246C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="431800"/>
+          <a:ext cx="6223000" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3081,12 +3167,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3104,8 +3190,8 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3117,7 +3203,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B1" s="33"/>
     </row>
@@ -3130,15 +3216,15 @@
         <v>23</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C4" s="50" t="b">
         <v>1</v>
@@ -3146,10 +3232,10 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C5" s="50" t="b">
         <v>1</v>
@@ -3157,10 +3243,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C6" s="50" t="b">
         <v>1</v>
@@ -3168,10 +3254,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C7" s="55" t="b">
         <v>0</v>
@@ -3179,10 +3265,10 @@
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>0</v>
@@ -3193,10 +3279,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C9" s="50" t="b">
         <v>1</v>
@@ -3204,10 +3290,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3215,10 +3301,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3226,10 +3312,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3237,10 +3323,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
@@ -3248,10 +3334,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3259,10 +3345,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C15" s="50" t="b">
         <v>0</v>
@@ -3270,10 +3356,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C16" s="50" t="b">
         <v>0</v>
@@ -4288,146 +4374,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4438,8 +4524,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4448,8 +4534,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4458,8 +4544,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4468,8 +4554,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="58" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4480,8 +4566,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4490,8 +4576,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4500,8 +4586,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4510,8 +4596,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4520,8 +4606,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="58" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4532,8 +4618,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4542,8 +4628,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4552,33 +4638,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="58"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5557,14 +5643,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5581,6 +5659,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5627,16 +5713,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5644,16 +5730,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5661,16 +5747,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5678,16 +5764,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5695,16 +5781,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5712,7 +5798,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5721,15 +5807,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5738,7 +5824,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5746,7 +5832,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5755,7 +5841,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5763,7 +5849,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5772,7 +5858,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5780,7 +5866,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5789,7 +5875,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5797,7 +5883,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5806,7 +5892,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5814,7 +5900,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5823,7 +5909,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5831,7 +5917,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5840,7 +5926,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5848,7 +5934,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5857,7 +5943,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5865,7 +5951,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5874,7 +5960,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -5882,16 +5968,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -5899,16 +5985,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -5916,7 +6002,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -5925,7 +6011,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -5933,7 +6019,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -5942,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -5950,7 +6036,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -5959,7 +6045,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7094,7 +7180,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7125,7 +7211,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B3" s="50" t="b">
         <v>1</v>
@@ -7231,7 +7317,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B12" s="50" t="b">
         <v>1</v>
@@ -7253,7 +7339,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B14" s="50" t="b">
         <v>1</v>
@@ -7290,7 +7376,7 @@
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="53" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8283,9 +8369,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1008"/>
+  <dimension ref="A1:F967"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="88" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8296,324 +8384,353 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="B3" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>147</v>
+      <c r="A4" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>150</v>
+      <c r="A6" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>151</v>
+      <c r="A7" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
-        <v>152</v>
-      </c>
+      <c r="A10" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E14" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F14" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="26" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="B15" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>158</v>
+      <c r="A16" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>158</v>
+      <c r="A17" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="87" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="B25" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+      <c r="B26" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -8622,10 +8739,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -8637,65 +8754,64 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="C31" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="26" t="s">
         <v>143</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
-        <v>167</v>
+      <c r="A33" s="31" t="s">
+        <v>298</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>168</v>
-      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
-        <v>169</v>
+      <c r="A34" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -8703,947 +8819,592 @@
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="25" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
+      <c r="C39" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="25" t="s">
-        <v>172</v>
-      </c>
+      <c r="A40" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="C45" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="F45" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="22"/>
+        <v>151</v>
+      </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="A48" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
-      <c r="E51" s="23"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="22" t="s">
+      <c r="C58" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22" t="s">
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="25"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25" t="s">
-        <v>178</v>
+      <c r="A60" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>144</v>
-      </c>
+      <c r="A61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="22" t="s">
-        <v>146</v>
-      </c>
+      <c r="E62" s="22"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="A65" s="25" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="25" t="s">
-        <v>183</v>
-      </c>
+      <c r="C67" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>144</v>
+      <c r="A68" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>153</v>
+      <c r="A69" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="22" t="s">
-        <v>146</v>
-      </c>
+      <c r="E69" s="22"/>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>153</v>
+      <c r="A70" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
-      <c r="E70" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F70" s="22" t="s">
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="27" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>168</v>
-      </c>
+      <c r="B71" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
+      <c r="A72" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" s="22"/>
+      <c r="A74" s="25" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
+      <c r="A75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C76" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+    </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="25" t="s">
-        <v>188</v>
-      </c>
+      <c r="A78" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" s="22"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="22"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" s="22"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" s="22"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F99" s="22"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F100" s="22"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F107" s="22"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A79" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10483,47 +10244,6 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10537,7 +10257,9 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11547,6 +11269,7 @@
   </sheetData>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11593,7 +11316,7 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -11609,19 +11332,19 @@
         <v>107</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11629,7 +11352,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="76"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11639,7 +11362,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11649,7 +11372,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="57"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11657,9 +11380,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="76"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="78"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11667,9 +11390,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="57"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="66"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11679,7 +11402,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11687,9 +11410,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="79"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="80"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11697,9 +11420,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="66"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11709,7 +11432,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11719,7 +11442,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="79"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11729,7 +11452,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11749,7 +11472,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="76"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11759,7 +11482,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="57"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11767,9 +11490,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="76"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11777,9 +11500,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="57"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="68"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11787,9 +11510,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="79"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="80"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11797,9 +11520,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="66"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11809,7 +11532,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="68"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11837,9 +11560,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="79"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="80"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11847,9 +11570,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="66"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11859,7 +11582,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11879,7 +11602,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11889,7 +11612,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="57"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11917,7 +11640,7 @@
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -11929,10 +11652,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="61"/>
+      <c r="C35" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="57"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11941,10 +11664,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="61"/>
+      <c r="C36" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="57"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11953,8 +11676,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11963,8 +11686,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="61"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11973,8 +11696,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="61"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11983,8 +11706,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="61"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11993,8 +11716,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="61"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -12003,8 +11726,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="61"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -12013,8 +11736,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="61"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -12033,7 +11756,7 @@
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -12045,10 +11768,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -12057,10 +11780,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="61"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -12069,8 +11792,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -12079,8 +11802,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="61"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -12089,8 +11812,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="61"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -12099,8 +11822,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="61"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -12109,8 +11832,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="61"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -12119,8 +11842,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="61"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -12129,8 +11852,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="61"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -12139,8 +11862,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="61"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -12149,8 +11872,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="61"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -12159,8 +11882,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="61"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -12169,8 +11892,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="61"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -12179,8 +11902,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -12189,8 +11912,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="61"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -12199,8 +11922,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="71"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12239,7 +11962,7 @@
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -12251,215 +11974,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="61"/>
+      <c r="C66" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="57"/>
       <c r="E66" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="G66" s="61"/>
+        <v>189</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="G66" s="57"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" s="64"/>
+      <c r="C67" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="76"/>
       <c r="E67" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="74"/>
-      <c r="G67" s="61"/>
+        <v>192</v>
+      </c>
+      <c r="F67" s="68"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="71"/>
       <c r="E68" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" s="74"/>
-      <c r="G68" s="61"/>
+        <v>193</v>
+      </c>
+      <c r="F68" s="68"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F69" s="74"/>
-      <c r="G69" s="61"/>
+        <v>194</v>
+      </c>
+      <c r="F69" s="68"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="61"/>
+      <c r="C70" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="57"/>
       <c r="E70" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="81"/>
-      <c r="G70" s="61"/>
+        <v>196</v>
+      </c>
+      <c r="F70" s="64"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="66"/>
+      <c r="C71" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="71"/>
       <c r="E71" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="75"/>
-      <c r="G71" s="68"/>
+        <v>193</v>
+      </c>
+      <c r="F71" s="65"/>
+      <c r="G71" s="66"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="68"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="75"/>
-      <c r="G72" s="68"/>
+        <v>194</v>
+      </c>
+      <c r="F72" s="65"/>
+      <c r="G72" s="66"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="64"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="61"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="66"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="71"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="61"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="66"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="61"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="66"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="71"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="61"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="66"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="71"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="61"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="57"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="61"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="76"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="61"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="61"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="66"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="61"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="64"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="76"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="61"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="66"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="71"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="61"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="68"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="61"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13412,62 +13135,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13478,6 +13145,62 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13512,19 +13235,19 @@
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84"/>
       <c r="B1" s="84" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D1" s="84" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G1" s="36">
         <f>ターム内容!$B5</f>
@@ -13758,10 +13481,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="85"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13993,13 +13716,13 @@
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+        <v>202</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -14234,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -14485,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -14736,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -14987,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -15235,13 +14958,13 @@
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+        <v>207</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15476,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15724,13 +15447,13 @@
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+        <v>208</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
@@ -15965,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>ターム内容!$B7</f>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DB595-0987-4E4D-9ECE-929AE5FCFB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDC723-2861-694E-9DB0-3BC3E9F88766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -1634,57 +1634,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3190,8 +3190,8 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4374,146 +4374,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="59" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4524,8 +4524,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4534,8 +4534,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4544,7 +4544,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="60"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
@@ -4554,8 +4554,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="59" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4566,8 +4566,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4576,8 +4576,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4586,8 +4586,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="60"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
@@ -4606,8 +4606,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="59" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4618,8 +4618,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4638,33 +4638,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5643,6 +5643,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5659,14 +5667,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7180,7 +7180,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8371,7 +8371,7 @@
   </sheetPr>
   <dimension ref="A1:F967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="88" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="88" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -8614,16 +8614,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="56" t="s">
         <v>141</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -8634,16 +8634,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="57" t="s">
         <v>294</v>
       </c>
       <c r="E21" s="29" t="s">
@@ -8652,14 +8652,14 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="57" t="s">
         <v>301</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="29" t="s">
         <v>294</v>
       </c>
@@ -8668,14 +8668,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="57" t="s">
         <v>302</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="29" t="s">
         <v>294</v>
       </c>
@@ -8684,28 +8684,28 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="29" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="29" t="s">
         <v>145</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="A46" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="58" t="s">
         <v>303</v>
       </c>
       <c r="C46" s="22" t="s">
@@ -11352,7 +11352,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="72"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11362,7 +11362,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="59"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11380,9 +11380,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="74"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11392,7 +11392,7 @@
       <c r="B9" s="34"/>
       <c r="C9" s="60"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="71"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11402,7 +11402,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11410,9 +11410,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="69"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11422,7 +11422,7 @@
       <c r="B12" s="34"/>
       <c r="C12" s="60"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11432,7 +11432,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="66"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11442,7 +11442,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11472,7 +11472,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11490,9 +11490,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="73"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11502,7 +11502,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="60"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="66"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11510,9 +11510,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11522,7 +11522,7 @@
       <c r="B22" s="34"/>
       <c r="C22" s="60"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11532,7 +11532,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="66"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11560,9 +11560,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="70"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11572,7 +11572,7 @@
       <c r="B27" s="34"/>
       <c r="C27" s="60"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="71"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11582,7 +11582,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="66"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11602,7 +11602,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="72"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11652,10 +11652,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11664,10 +11664,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11676,8 +11676,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11686,8 +11686,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11696,8 +11696,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11706,8 +11706,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11716,8 +11716,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11726,8 +11726,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11736,8 +11736,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="57"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -11768,10 +11768,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -11780,10 +11780,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -11792,8 +11792,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="57"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -11802,8 +11802,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="57"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -11812,8 +11812,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -11822,8 +11822,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -11832,8 +11832,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="57"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -11842,8 +11842,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -11852,8 +11852,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="57"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -11862,8 +11862,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="57"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -11872,8 +11872,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="57"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -11882,8 +11882,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -11892,8 +11892,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -11902,8 +11902,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -11912,8 +11912,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -11922,8 +11922,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="80"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -11974,215 +11974,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="57"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="G66" s="57"/>
+      <c r="G66" s="64"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="76"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F67" s="68"/>
-      <c r="G67" s="57"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="64"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="71"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="68"/>
-      <c r="G68" s="57"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="64"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="66"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="71"/>
       <c r="E69" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="68"/>
-      <c r="G69" s="57"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="64"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="57"/>
+      <c r="D70" s="64"/>
       <c r="E70" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="57"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="64"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="81" t="s">
+      <c r="C71" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="71"/>
+      <c r="D71" s="69"/>
       <c r="E71" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F71" s="65"/>
-      <c r="G71" s="66"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="71"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="66"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="71"/>
       <c r="E72" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F72" s="65"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="71"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="57"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="71"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="57"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="64"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="66"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="57"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="64"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="71"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="57"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="64"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="71"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="57"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="64"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="66"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="71"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="57"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="64"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="76"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="57"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="64"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="71"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="57"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="64"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="66"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="57"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="76"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="57"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="64"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="71"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="57"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="64"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="66"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="57"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="64"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13135,6 +13135,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13145,62 +13201,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13233,20 +13233,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="87" t="s">
         <v>201</v>
       </c>
       <c r="G1" s="36">
@@ -13479,12 +13479,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13715,14 +13715,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -14957,14 +14957,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15446,14 +15446,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDC723-2861-694E-9DB0-3BC3E9F88766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC451115-9883-6B48-8B9A-4001F847FC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,9 +463,6 @@
     <t>店名で検索する</t>
   </si>
   <si>
-    <t>最低ライン</t>
-  </si>
-  <si>
     <t>飲食店お気に入り追加</t>
   </si>
   <si>
@@ -1108,6 +1105,22 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>カメラ画面機能開発済み</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カイハツ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1639,46 +1652,46 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3167,12 +3180,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3204,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3203,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="33"/>
     </row>
@@ -3216,15 +3229,15 @@
         <v>23</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>214</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>215</v>
       </c>
       <c r="C4" s="50" t="b">
         <v>1</v>
@@ -3232,10 +3245,10 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="50" t="b">
         <v>1</v>
@@ -3243,10 +3256,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="50" t="b">
         <v>1</v>
@@ -3254,35 +3267,33 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>218</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>219</v>
       </c>
       <c r="C7" s="55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="23" t="b">
+      <c r="A8" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="50" t="b">
         <v>1</v>
@@ -3290,10 +3301,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="C10" s="23" t="b">
         <v>1</v>
@@ -3301,10 +3312,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3312,10 +3323,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3323,21 +3334,24 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
       </c>
+      <c r="D13" s="53" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3345,10 +3359,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>231</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>232</v>
       </c>
       <c r="C15" s="50" t="b">
         <v>0</v>
@@ -3356,10 +3370,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>233</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>234</v>
       </c>
       <c r="C16" s="50" t="b">
         <v>0</v>
@@ -4374,146 +4388,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="61" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4524,8 +4538,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4534,8 +4548,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4544,8 +4558,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4554,8 +4568,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="59" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="61" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4566,8 +4580,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4576,8 +4590,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4586,8 +4600,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4596,8 +4610,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4606,8 +4620,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="61" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4618,8 +4632,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4628,8 +4642,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4638,33 +4652,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5643,14 +5657,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5667,6 +5673,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5713,16 +5727,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5730,16 +5744,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5747,16 +5761,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5764,16 +5778,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5781,16 +5795,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5798,7 +5812,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5807,15 +5821,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5824,7 +5838,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5832,7 +5846,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5841,7 +5855,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5849,7 +5863,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5858,7 +5872,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5866,7 +5880,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5875,7 +5889,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5883,7 +5897,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5892,7 +5906,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5900,7 +5914,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5909,7 +5923,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5917,7 +5931,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5926,7 +5940,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5934,7 +5948,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5943,7 +5957,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5951,7 +5965,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5960,7 +5974,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -5968,16 +5982,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -5985,16 +5999,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -6002,7 +6016,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -6011,7 +6025,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -6019,7 +6033,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -6028,7 +6042,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -6036,7 +6050,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -6045,7 +6059,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7211,7 +7225,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="50" t="b">
         <v>1</v>
@@ -7294,52 +7308,52 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="50" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="50" t="b">
         <v>1</v>
@@ -7376,7 +7390,7 @@
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8384,111 +8398,111 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>153</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -8497,10 +8511,10 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8509,10 +8523,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -8521,10 +8535,10 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -8536,72 +8550,72 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="22"/>
     </row>
@@ -8610,127 +8624,127 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="C20" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="D20" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="E20" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -8739,10 +8753,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -8754,53 +8768,53 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="C31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="22"/>
       <c r="E33" s="22"/>
@@ -8808,10 +8822,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -8820,10 +8834,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -8835,53 +8849,53 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="C38" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="E38" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="F38" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -8890,10 +8904,10 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -8902,10 +8916,10 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -8918,142 +8932,142 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="C45" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="F45" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -9062,10 +9076,10 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -9075,83 +9089,83 @@
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="C57" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="D57" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="E57" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="F57" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -9160,10 +9174,10 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -9174,67 +9188,67 @@
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="C66" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="D66" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="E66" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -9243,10 +9257,10 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -9255,10 +9269,10 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -9267,10 +9281,10 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -9280,53 +9294,53 @@
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="C75" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="D75" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="E75" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="F75" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="22"/>
       <c r="E77" s="22"/>
@@ -9334,10 +9348,10 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -9346,10 +9360,10 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
@@ -11316,7 +11330,7 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -11332,19 +11346,19 @@
         <v>107</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11352,7 +11366,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="79"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11362,7 +11376,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11372,7 +11386,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="60"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11380,9 +11394,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="79"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="81"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11390,9 +11404,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="69"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11402,7 +11416,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11410,9 +11424,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="82"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="83"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11420,9 +11434,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11432,7 +11446,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11442,7 +11456,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="82"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11452,7 +11466,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="60"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11472,7 +11486,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="79"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11482,7 +11496,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="60"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11490,9 +11504,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="79"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="80"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11500,9 +11514,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11510,9 +11524,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="82"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="83"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11520,9 +11534,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11532,7 +11546,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="71"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11560,9 +11574,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="82"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="83"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11570,9 +11584,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="69"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11582,7 +11596,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11602,7 +11616,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="79"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11612,7 +11626,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="60"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11640,7 +11654,7 @@
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -11652,10 +11666,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="64"/>
+      <c r="C35" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="60"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11664,10 +11678,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="64"/>
+      <c r="C36" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="60"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11676,8 +11690,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11686,8 +11700,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11696,8 +11710,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11706,8 +11720,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="64"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11716,8 +11730,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="64"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11726,8 +11740,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="64"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11736,8 +11750,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="64"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -11756,7 +11770,7 @@
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -11768,10 +11782,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -11780,10 +11794,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -11792,8 +11806,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="64"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -11802,8 +11816,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="64"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -11812,8 +11826,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -11822,8 +11836,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="64"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -11832,8 +11846,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="64"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -11842,8 +11856,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="64"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -11852,8 +11866,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="64"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -11862,8 +11876,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="64"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -11872,8 +11886,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="64"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -11882,8 +11896,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="64"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="60"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -11892,8 +11906,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="64"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -11902,8 +11916,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="64"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -11912,8 +11926,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="64"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -11922,8 +11936,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="74"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -11962,7 +11976,7 @@
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -11974,215 +11988,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="60"/>
+      <c r="E66" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="G66" s="64"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="79"/>
+      <c r="E67" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="64"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="64"/>
+        <v>192</v>
+      </c>
+      <c r="F68" s="71"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="71"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="64"/>
+        <v>193</v>
+      </c>
+      <c r="F69" s="71"/>
+      <c r="G69" s="60"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="60"/>
+      <c r="E70" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" s="84"/>
-      <c r="G70" s="64"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="60"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="69"/>
+      <c r="C71" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="74"/>
       <c r="E71" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="71"/>
+        <v>192</v>
+      </c>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="71"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" s="78"/>
-      <c r="G72" s="71"/>
+        <v>193</v>
+      </c>
+      <c r="F72" s="68"/>
+      <c r="G72" s="69"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="64"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="60"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="69"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="64"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="60"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="71"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="64"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="60"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="69"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="64"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="64"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="60"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="71"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="69"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="64"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="60"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="64"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="60"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="69"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="74"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="64"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="60"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="71"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="64"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="60"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="79"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="64"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="60"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="69"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="64"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="60"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="71"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="69"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="64"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13135,62 +13149,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13201,6 +13159,62 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13235,19 +13249,19 @@
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="87"/>
       <c r="B1" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>199</v>
       </c>
       <c r="D1" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="87" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>201</v>
       </c>
       <c r="G1" s="36">
         <f>ターム内容!$B5</f>
@@ -13481,10 +13495,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13716,13 +13730,13 @@
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
+        <v>201</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -13957,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -14208,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -14459,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -14710,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>ターム内容!$B8</f>
@@ -14958,13 +14972,13 @@
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+        <v>206</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15199,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>ターム内容!$B7</f>
@@ -15447,13 +15461,13 @@
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+        <v>207</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
@@ -15688,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>ターム内容!$B7</f>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC451115-9883-6B48-8B9A-4001F847FC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1022C-CDBC-3845-B03A-F657447D5153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,9 +756,6 @@
     <t>お店の画像をストレージに保存することができる</t>
   </si>
   <si>
-    <t>認証</t>
-  </si>
-  <si>
     <t>メールによって本人確認を行うことができる</t>
   </si>
   <si>
@@ -1121,6 +1118,10 @@
     <rPh sb="9" eb="10">
       <t xml:space="preserve">ズミ </t>
     </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>認証</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -3204,7 +3205,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3245,7 +3246,7 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>215</v>
@@ -3256,7 +3257,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>216</v>
@@ -3281,7 +3282,7 @@
         <v>219</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="50" t="b">
         <v>0</v>
@@ -3290,7 +3291,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>220</v>
@@ -3300,22 +3301,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="23" t="b">
+      <c r="C10" s="50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="C11" s="23" t="b">
         <v>1</v>
@@ -3323,10 +3324,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
@@ -3334,24 +3335,24 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="C13" s="23" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="23" t="b">
         <v>0</v>
@@ -3359,10 +3360,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>231</v>
       </c>
       <c r="C15" s="50" t="b">
         <v>0</v>
@@ -3370,10 +3371,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>232</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>233</v>
       </c>
       <c r="C16" s="50" t="b">
         <v>0</v>
@@ -5727,16 +5728,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5744,16 +5745,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5761,16 +5762,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5778,16 +5779,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5795,16 +5796,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5812,7 +5813,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5821,15 +5822,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5838,7 +5839,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5846,7 +5847,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5855,7 +5856,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5863,7 +5864,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5872,7 +5873,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5880,7 +5881,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5889,7 +5890,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5897,7 +5898,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5906,7 +5907,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5914,7 +5915,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5923,7 +5924,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5931,7 +5932,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5940,7 +5941,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5948,7 +5949,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5957,7 +5958,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5965,7 +5966,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5974,7 +5975,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -5982,16 +5983,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -5999,16 +6000,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -6016,7 +6017,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -6025,7 +6026,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -6033,7 +6034,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -6042,7 +6043,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -6050,7 +6051,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -6059,7 +6060,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7225,7 +7226,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="50" t="b">
         <v>1</v>
@@ -7331,7 +7332,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="50" t="b">
         <v>1</v>
@@ -7353,7 +7354,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" s="50" t="b">
         <v>1</v>
@@ -7390,7 +7391,7 @@
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8429,10 +8430,10 @@
         <v>150</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>144</v>
@@ -8441,7 +8442,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>150</v>
@@ -8452,7 +8453,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8550,7 +8551,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8581,10 +8582,10 @@
         <v>150</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>144</v>
@@ -8593,7 +8594,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>159</v>
@@ -8607,7 +8608,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>155</v>
@@ -8652,13 +8653,13 @@
         <v>143</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>144</v>
@@ -8667,7 +8668,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>150</v>
@@ -8675,15 +8676,15 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>150</v>
@@ -8691,10 +8692,10 @@
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8799,10 +8800,10 @@
         <v>150</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>144</v>
@@ -8811,7 +8812,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>159</v>
@@ -8880,10 +8881,10 @@
         <v>150</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>144</v>
@@ -8892,7 +8893,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>159</v>
@@ -8960,13 +8961,13 @@
         <v>143</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>144</v>
@@ -9006,7 +9007,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>150</v>
@@ -9017,7 +9018,7 @@
         <v>144</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9120,7 +9121,7 @@
         <v>150</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
@@ -9219,7 +9220,7 @@
         <v>150</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
@@ -9294,7 +9295,7 @@
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9325,10 +9326,10 @@
         <v>150</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>144</v>
@@ -9337,7 +9338,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>159</v>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1022C-CDBC-3845-B03A-F657447D5153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC4BCD-260D-D841-A677-D57E50EB4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,7 +3205,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3312,13 +3312,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="23" t="b">
+      <c r="C11" s="50" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC4BCD-260D-D841-A677-D57E50EB4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D392E17E-4931-F848-8E67-CA5E0C8EF2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="311">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -777,9 +777,6 @@
     <t>利用者が来店した際に店舗側に見せるQRコードを発行し、お店側は照合することができる</t>
   </si>
   <si>
-    <t>決済機能</t>
-  </si>
-  <si>
     <t>AWS</t>
   </si>
   <si>
@@ -1122,6 +1119,23 @@
   </si>
   <si>
     <t>認証</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>決済機能</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>100円の定額請求</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">エンノ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">テイガク </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">セイキュウ </t>
+    </rPh>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1635,7 +1649,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1653,52 +1666,53 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3205,7 +3219,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3234,91 +3248,91 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="50" t="b">
+      <c r="C4" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="50" t="b">
+      <c r="C5" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="50" t="b">
+      <c r="C6" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="55" t="b">
+      <c r="C7" s="54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="50" t="b">
+      <c r="C9" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="50" t="b">
+      <c r="C10" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="50" t="b">
+      <c r="C11" s="49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3343,40 +3357,43 @@
       <c r="C13" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>308</v>
+      <c r="D13" s="52" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="23" t="b">
+      <c r="B15" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="49" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="50" t="b">
+      <c r="C16" s="49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4389,146 +4406,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4539,8 +4556,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4549,8 +4566,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4559,8 +4576,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4569,8 +4586,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4581,8 +4598,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4591,8 +4608,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4601,8 +4618,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4611,8 +4628,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4638,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="58" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4633,8 +4650,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4643,8 +4660,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4653,33 +4670,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5658,6 +5675,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5674,14 +5699,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5728,16 +5745,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5745,16 +5762,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5762,16 +5779,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5779,16 +5796,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5796,16 +5813,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5813,7 +5830,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5822,15 +5839,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>284</v>
+        <v>254</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5839,7 +5856,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5847,7 +5864,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5856,7 +5873,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5864,7 +5881,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5873,7 +5890,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5881,7 +5898,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5890,7 +5907,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5898,7 +5915,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5907,7 +5924,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5915,7 +5932,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5924,7 +5941,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5932,7 +5949,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5941,7 +5958,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5949,7 +5966,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5958,7 +5975,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5966,7 +5983,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5975,7 +5992,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -5983,16 +6000,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -6000,16 +6017,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -6017,7 +6034,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -6026,7 +6043,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -6034,7 +6051,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -6043,7 +6060,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -6051,7 +6068,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -6060,7 +6077,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7213,175 +7230,175 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="50" t="b">
+      <c r="B2" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="48" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="50" t="b">
+      <c r="A3" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="50" t="b">
+      <c r="B4" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="50" t="b">
+      <c r="B5" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="50" t="b">
+      <c r="B6" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="50" t="b">
+      <c r="B7" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="50" t="b">
+      <c r="B8" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="50" t="b">
+      <c r="B9" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="50" t="b">
+      <c r="B10" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="50" t="b">
+      <c r="B11" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="50" t="b">
+      <c r="A12" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="50" t="b">
+      <c r="B13" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="B14" s="50" t="b">
+      <c r="A14" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="50" t="b">
+      <c r="B15" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="50" t="b">
+      <c r="B16" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7390,8 +7407,8 @@
     <row r="19" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H21" s="53" t="s">
-        <v>289</v>
+      <c r="H21" s="52" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8430,10 +8447,10 @@
         <v>150</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>144</v>
@@ -8442,7 +8459,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>150</v>
@@ -8453,7 +8470,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8551,7 +8568,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8582,10 +8599,10 @@
         <v>150</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>144</v>
@@ -8594,7 +8611,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>159</v>
@@ -8608,7 +8625,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>155</v>
@@ -8629,16 +8646,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>140</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -8649,17 +8666,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>292</v>
+      <c r="B21" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>291</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>144</v>
@@ -8667,60 +8684,60 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57" t="s">
-        <v>299</v>
+      <c r="A22" s="56" t="s">
+        <v>298</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
-        <v>300</v>
+      <c r="A23" s="56" t="s">
+        <v>299</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="29" t="s">
         <v>144</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="29" t="s">
         <v>144</v>
       </c>
@@ -8800,10 +8817,10 @@
         <v>150</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>144</v>
@@ -8812,7 +8829,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>159</v>
@@ -8881,10 +8898,10 @@
         <v>150</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>144</v>
@@ -8893,7 +8910,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>159</v>
@@ -8960,14 +8977,14 @@
       <c r="A46" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>301</v>
+      <c r="B46" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>144</v>
@@ -9007,7 +9024,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>150</v>
@@ -9018,7 +9035,7 @@
         <v>144</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9121,7 +9138,7 @@
         <v>150</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
@@ -9220,7 +9237,7 @@
         <v>150</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
@@ -9295,7 +9312,7 @@
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9326,10 +9343,10 @@
         <v>150</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>144</v>
@@ -9338,7 +9355,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>159</v>
@@ -11367,7 +11384,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="75"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11377,7 +11394,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="62"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11387,7 +11404,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11395,9 +11412,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="75"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="77"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11405,9 +11422,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="74"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11417,7 +11434,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11425,9 +11442,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="73"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11435,9 +11452,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="74"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11447,7 +11464,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11457,7 +11474,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="72"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11467,7 +11484,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="63"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11487,7 +11504,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="75"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11497,7 +11514,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="63"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11505,9 +11522,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="75"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="76"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11515,9 +11532,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="63"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11525,9 +11542,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="73"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11535,9 +11552,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="63"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="74"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11547,7 +11564,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="69"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11575,9 +11592,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="72"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="73"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11585,9 +11602,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="63"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="74"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11597,7 +11614,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11617,7 +11634,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="75"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11627,7 +11644,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="63"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11667,10 +11684,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11679,10 +11696,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="60"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11691,8 +11708,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11701,8 +11718,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11711,8 +11728,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11721,8 +11738,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11731,8 +11748,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="60"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11741,8 +11758,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="60"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11751,8 +11768,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="60"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -11783,10 +11800,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -11795,10 +11812,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="60"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -11807,8 +11824,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="60"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -11817,8 +11834,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="60"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -11827,8 +11844,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="60"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -11837,8 +11854,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="60"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -11847,8 +11864,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="60"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -11857,8 +11874,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="60"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -11867,8 +11884,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -11877,8 +11894,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="60"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -11887,8 +11904,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="60"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -11897,8 +11914,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="60"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -11907,8 +11924,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="60"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -11917,8 +11934,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="60"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -11927,8 +11944,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="60"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -11937,8 +11954,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -11989,215 +12006,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="60"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F66" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="G66" s="60"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="79"/>
+      <c r="D67" s="66"/>
       <c r="E67" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="60"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="74"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="60"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="60"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="60"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F70" s="67"/>
-      <c r="G70" s="60"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="74"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="68"/>
-      <c r="G71" s="69"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="70"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="68"/>
-      <c r="G72" s="69"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="70"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="60"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="74"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="60"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="70"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="60"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="74"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="68"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="60"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="74"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="60"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="70"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="60"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="66"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="60"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="74"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="60"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="63"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="70"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="60"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="79"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="66"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="60"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="74"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="60"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="60"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13150,6 +13167,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13160,62 +13233,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13248,20 +13265,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="86" t="s">
         <v>200</v>
       </c>
       <c r="G1" s="36">
@@ -13494,12 +13511,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13730,14 +13747,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -14972,14 +14989,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15461,14 +15478,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D392E17E-4931-F848-8E67-CA5E0C8EF2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D89A34-6752-BB4A-9399-67D9CBE123B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,13 +765,7 @@
     <t>管理画面から利用者にお知らせメールを送信することができる</t>
   </si>
   <si>
-    <t>リマインダー</t>
-  </si>
-  <si>
     <t>タスクスケジューラーを利用して、予約当日の朝に予約情報のリマインダーを送る</t>
-  </si>
-  <si>
-    <t>QRコード</t>
   </si>
   <si>
     <t>利用者が来店した際に店舗側に見せるQRコードを発行し、お店側は照合することができる</t>
@@ -1102,22 +1096,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>カメラ画面機能開発済み</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ガメｎ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">カイハツ </t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">ズミ </t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>認証</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -1135,6 +1113,21 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t xml:space="preserve">セイキュウ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>リマインダー</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>QRコード</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>メッセージが飛ばない</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">トバナイ </t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1666,53 +1659,53 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3219,7 +3212,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3260,7 +3253,7 @@
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>215</v>
@@ -3271,7 +3264,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>216</v>
@@ -3296,7 +3289,7 @@
         <v>219</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" s="49" t="b">
         <v>0</v>
@@ -3305,7 +3298,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>220</v>
@@ -3316,7 +3309,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>221</v>
@@ -3338,49 +3331,49 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="C12" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="23" t="b">
+      <c r="A13" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="49" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>232</v>
+        <v>306</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>230</v>
       </c>
       <c r="C14" s="49" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C15" s="49" t="b">
         <v>0</v>
@@ -3388,10 +3381,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" s="49" t="b">
         <v>0</v>
@@ -4406,146 +4399,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="61" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4556,8 +4549,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4566,8 +4559,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4576,8 +4569,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4586,8 +4579,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="61" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4598,8 +4591,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4608,8 +4601,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4618,8 +4611,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4628,8 +4621,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4638,8 +4631,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="61" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4650,8 +4643,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4660,8 +4653,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4670,33 +4663,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="59"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5675,14 +5668,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5699,6 +5684,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5745,16 +5738,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5762,16 +5755,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5779,16 +5772,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5796,16 +5789,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5813,16 +5806,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5830,7 +5823,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5839,15 +5832,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5856,7 +5849,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5864,7 +5857,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5873,7 +5866,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5881,7 +5874,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5890,7 +5883,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5898,7 +5891,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -5907,7 +5900,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -5915,7 +5908,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -5924,7 +5917,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -5932,7 +5925,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -5941,7 +5934,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -5949,7 +5942,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -5958,7 +5951,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -5966,7 +5959,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -5975,7 +5968,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -5983,7 +5976,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -5992,7 +5985,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -6000,16 +5993,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -6017,16 +6010,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -6034,7 +6027,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -6043,7 +6036,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -6051,7 +6044,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -6060,7 +6053,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -6068,7 +6061,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -6077,7 +6070,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7243,7 +7236,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="49" t="b">
         <v>1</v>
@@ -7349,7 +7342,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" s="49" t="b">
         <v>1</v>
@@ -7371,7 +7364,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" s="49" t="b">
         <v>1</v>
@@ -7408,7 +7401,7 @@
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8447,10 +8440,10 @@
         <v>150</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>144</v>
@@ -8459,7 +8452,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>150</v>
@@ -8470,7 +8463,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8568,7 +8561,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8599,10 +8592,10 @@
         <v>150</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>144</v>
@@ -8611,7 +8604,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>159</v>
@@ -8625,7 +8618,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>155</v>
@@ -8670,13 +8663,13 @@
         <v>143</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>144</v>
@@ -8685,7 +8678,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>150</v>
@@ -8693,15 +8686,15 @@
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
       <c r="E22" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>150</v>
@@ -8709,10 +8702,10 @@
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8817,10 +8810,10 @@
         <v>150</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>144</v>
@@ -8829,7 +8822,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>159</v>
@@ -8898,10 +8891,10 @@
         <v>150</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>144</v>
@@ -8910,7 +8903,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>159</v>
@@ -8978,13 +8971,13 @@
         <v>143</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>144</v>
@@ -9024,7 +9017,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>150</v>
@@ -9035,7 +9028,7 @@
         <v>144</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9138,7 +9131,7 @@
         <v>150</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
@@ -9237,7 +9230,7 @@
         <v>150</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
@@ -9312,7 +9305,7 @@
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9343,10 +9336,10 @@
         <v>150</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>144</v>
@@ -9355,7 +9348,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>159</v>
@@ -11384,7 +11377,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="78"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11394,7 +11387,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="60"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11404,7 +11397,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="59"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11412,9 +11405,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="78"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="80"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11422,9 +11415,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11434,7 +11427,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="70"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11442,9 +11435,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="81"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="82"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11452,9 +11445,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11464,7 +11457,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11474,7 +11467,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="81"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11484,7 +11477,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="59"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11504,7 +11497,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="78"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11514,7 +11507,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="59"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11522,9 +11515,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="78"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="79"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11532,9 +11525,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="70"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11542,9 +11535,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="81"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="82"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11552,9 +11545,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="59"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11564,7 +11557,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="70"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11592,9 +11585,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="81"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="82"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11602,9 +11595,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="59"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11614,7 +11607,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="70"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11634,7 +11627,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="78"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11644,7 +11637,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="59"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11684,10 +11677,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11696,10 +11689,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11708,8 +11701,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="63"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11718,8 +11711,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="63"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11728,8 +11721,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="63"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11738,8 +11731,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="63"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11748,8 +11741,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="63"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11758,8 +11751,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11768,8 +11761,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="63"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -11800,10 +11793,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -11812,10 +11805,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -11824,8 +11817,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="63"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -11834,8 +11827,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="63"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -11844,8 +11837,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="63"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -11854,8 +11847,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="63"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -11864,8 +11857,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="63"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -11874,8 +11867,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="63"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -11884,8 +11877,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="63"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -11894,8 +11887,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="63"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -11904,8 +11897,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="63"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -11914,8 +11907,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="63"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="60"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -11924,8 +11917,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="63"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -11934,8 +11927,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="63"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -11944,8 +11937,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="63"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -11954,8 +11947,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -12006,215 +11999,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="60"/>
       <c r="E66" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F66" s="74" t="s">
+      <c r="F66" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="G66" s="63"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="66"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="63"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="70"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="76"/>
-      <c r="G69" s="63"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="60"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="63"/>
+      <c r="D70" s="60"/>
       <c r="E70" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F70" s="83"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="60"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="68"/>
+      <c r="D71" s="74"/>
       <c r="E71" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="70"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="70"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="77"/>
-      <c r="G72" s="70"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="69"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="66"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="60"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="63"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="60"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="70"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="63"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="60"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="68"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="63"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="63"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="60"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="70"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="69"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="63"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="60"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="66"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="63"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="60"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="74"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="63"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="60"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="70"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="60"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="66"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="79"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="60"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="60"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="69"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="63"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13167,62 +13160,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13233,6 +13170,62 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13265,20 +13258,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="87" t="s">
         <v>200</v>
       </c>
       <c r="G1" s="36">
@@ -13511,12 +13504,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13747,14 +13740,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -14989,14 +14982,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15478,14 +15471,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D89A34-6752-BB4A-9399-67D9CBE123B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F6A6B-2BA2-C541-B9AE-5905602ADC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="314">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -1128,6 +1128,42 @@
     <t>メッセージが飛ばない</t>
     <rPh sb="6" eb="7">
       <t xml:space="preserve">トバナイ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>本番環境による実装</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホンバン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カンキョウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>メールサーバーの準備＋SSL証明書の準備</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジュンビ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ショウメイ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ショ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ジュンビ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>CRON機能</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">キノウ </t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1272,7 +1308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,6 +1354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1660,52 +1702,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3209,10 +3252,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D996"/>
+  <dimension ref="A1:F996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3222,25 +3265,28 @@
     <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48" t="s">
         <v>213</v>
       </c>
@@ -3250,8 +3296,9 @@
       <c r="C4" s="49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48" t="s">
         <v>287</v>
       </c>
@@ -3261,8 +3308,9 @@
       <c r="C5" s="49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48" t="s">
         <v>284</v>
       </c>
@@ -3272,8 +3320,9 @@
       <c r="C6" s="49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="53" t="s">
         <v>217</v>
       </c>
@@ -3284,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48" t="s">
         <v>219</v>
       </c>
@@ -3295,8 +3344,9 @@
         <v>0</v>
       </c>
       <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48" t="s">
         <v>232</v>
       </c>
@@ -3306,8 +3356,9 @@
       <c r="C9" s="49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48" t="s">
         <v>305</v>
       </c>
@@ -3317,8 +3368,9 @@
       <c r="C10" s="49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="89"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48" t="s">
         <v>222</v>
       </c>
@@ -3328,19 +3380,24 @@
       <c r="C11" s="49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="E11" s="89"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="23" t="b">
+      <c r="C12" s="49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="89"/>
+      <c r="F12" s="52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48" t="s">
         <v>309</v>
       </c>
@@ -3353,8 +3410,9 @@
       <c r="D13" s="52" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48" t="s">
         <v>306</v>
       </c>
@@ -3367,8 +3425,9 @@
       <c r="D14" s="52" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="89"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48" t="s">
         <v>226</v>
       </c>
@@ -3378,8 +3437,11 @@
       <c r="C15" s="49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="52" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48" t="s">
         <v>228</v>
       </c>
@@ -4399,146 +4461,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="59" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4549,8 +4611,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4559,8 +4621,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4569,8 +4631,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4579,8 +4641,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="59" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4591,8 +4653,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4663,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4611,8 +4673,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4621,8 +4683,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4631,8 +4693,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="59" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4643,8 +4705,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4653,8 +4715,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4663,33 +4725,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5668,6 +5730,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5684,14 +5754,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11377,7 +11439,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="75"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -11387,7 +11449,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="62"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -11397,7 +11459,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -11405,9 +11467,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="75"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="77"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -11415,9 +11477,9 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="74"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11427,7 +11489,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11435,9 +11497,9 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="73"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11445,9 +11507,9 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="74"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11457,7 +11519,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11467,7 +11529,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="72"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -11477,7 +11539,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="27"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="63"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -11497,7 +11559,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="75"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -11507,7 +11569,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="63"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -11515,9 +11577,9 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="75"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="76"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -11525,9 +11587,9 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="63"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -11535,9 +11597,9 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="73"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -11545,9 +11607,9 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="63"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="74"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11557,7 +11619,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="69"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -11585,9 +11647,9 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="72"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="73"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -11595,9 +11657,9 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="63"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="74"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11607,7 +11669,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -11627,7 +11689,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="75"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -11637,7 +11699,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="63"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -11677,10 +11739,10 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11689,10 +11751,10 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="60"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -11701,8 +11763,8 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -11711,8 +11773,8 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -11721,8 +11783,8 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -11731,8 +11793,8 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -11741,8 +11803,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="60"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -11751,8 +11813,8 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="60"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -11761,8 +11823,8 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="60"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -11793,10 +11855,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -11805,10 +11867,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="60"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -11817,8 +11879,8 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="60"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -11827,8 +11889,8 @@
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="60"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -11837,8 +11899,8 @@
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="60"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -11847,8 +11909,8 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="60"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -11857,8 +11919,8 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="60"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -11867,8 +11929,8 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="60"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -11877,8 +11939,8 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -11887,8 +11949,8 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="60"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -11897,8 +11959,8 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="60"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -11907,8 +11969,8 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="60"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -11917,8 +11979,8 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="60"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -11927,8 +11989,8 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="60"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -11937,8 +11999,8 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="60"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -11947,8 +12009,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -11999,215 +12061,215 @@
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="60"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F66" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="G66" s="60"/>
+      <c r="G66" s="64"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="79"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="60"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="64"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="74"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="60"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="64"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="69"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="71"/>
       <c r="E69" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="60"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="64"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="60"/>
+      <c r="D70" s="64"/>
       <c r="E70" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F70" s="67"/>
-      <c r="G70" s="60"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="64"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="74"/>
+      <c r="D71" s="69"/>
       <c r="E71" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="68"/>
-      <c r="G71" s="69"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="71"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="69"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="71"/>
       <c r="E72" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="68"/>
-      <c r="G72" s="69"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="71"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="60"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="74"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="60"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="64"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="69"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="60"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="64"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="74"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="60"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="64"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="74"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="60"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="64"/>
       <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="69"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="71"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="60"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="64"/>
       <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="60"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="64"/>
       <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="74"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="60"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="64"/>
       <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="69"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="60"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="79"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="60"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="64"/>
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="74"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="60"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="64"/>
       <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="69"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="60"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="64"/>
       <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13160,6 +13222,62 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
     <mergeCell ref="C79:D81"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="C60:D60"/>
@@ -13170,62 +13288,6 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="C73:D75"/>
     <mergeCell ref="C76:D78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13506,10 +13568,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="37" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -13743,11 +13805,11 @@
       <c r="A3" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -14985,11 +15047,11 @@
       <c r="A8" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="38" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -15474,11 +15536,11 @@
       <c r="A10" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="38" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F6A6B-2BA2-C541-B9AE-5905602ADC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BEBDC2-3E1F-F34A-A6FE-17C64CFD3191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="314">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -1145,25 +1145,67 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>メールサーバーの準備＋SSL証明書の準備</t>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ジュンビ </t>
+    <t>同上</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ドウジョウ </t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">ショウメイ </t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t xml:space="preserve">ショ </t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Azure vm上にメールサーバーを構築することが推奨されていないため、構築はしないことにした。（技術的には、azure communication services （PaaS　AWSのSESに相当）もしくは、Exchange等との連携によりメールの送信する機能は作成できる見込みあり.今回の課題の内容を逸脱するため、未着手）</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ジョウ </t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t xml:space="preserve">ジュンビ </t>
+      <t xml:space="preserve">コウチク </t>
     </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>CRON機能</t>
-    <rPh sb="4" eb="6">
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">スイショウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">コウチク </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ギジュツ </t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">テキ </t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t xml:space="preserve">ソウトウ </t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t xml:space="preserve">レンケイ </t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t xml:space="preserve">ソウシｎ </t>
+    </rPh>
+    <rPh sb="130" eb="132">
       <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t xml:space="preserve">ミコミ </t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t xml:space="preserve">コンカイ </t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t xml:space="preserve">ナイヨウ </t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t xml:space="preserve">イツダツ </t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t xml:space="preserve">ミチャクシュ </t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1308,7 +1350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,12 +1396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,7 +1784,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3255,7 +3291,7 @@
   <dimension ref="A1:F996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3369,6 +3405,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="89"/>
+      <c r="F10" s="52" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48" t="s">
@@ -3380,7 +3419,11 @@
       <c r="C11" s="49" t="b">
         <v>1</v>
       </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="89"/>
+      <c r="F11" s="52" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48" t="s">
@@ -3394,7 +3437,7 @@
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3422,10 +3465,10 @@
       <c r="C14" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48" t="s">
@@ -3437,9 +3480,7 @@
       <c r="C15" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>312</v>
-      </c>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48" t="s">

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BEBDC2-3E1F-F34A-A6FE-17C64CFD3191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86FFA6-1BAB-DC44-AEB1-BA987F146DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="414">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -616,9 +616,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Usersテーブル操作用モデル</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -632,27 +629,6 @@
   </si>
   <si>
     <t>ルール</t>
-  </si>
-  <si>
-    <t>RegisterRequest.php</t>
-  </si>
-  <si>
-    <t>ユーザーネーム</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>ConfirmPasswordController.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 確認用パスワード</t>
-  </si>
-  <si>
-    <t>LoginController.php</t>
   </si>
   <si>
     <t>工程</t>
@@ -1077,18 +1053,6 @@
   </si>
   <si>
     <t>ganre(id)</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>stateus_id</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>status(id)</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>statusテーブル</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -1206,6 +1170,695 @@
     </rPh>
     <rPh sb="160" eb="163">
       <t xml:space="preserve">ミチャクシュ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>reservationstatusesテーブル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>reservationstatuses_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>reservationstatuses_id(id)</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>検索機能</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>HomeController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/reserve/thankyou</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/reserve</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/reserve/delete</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ReserveController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/reserve/{id}</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/booking/{shop_id}</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>LoginController</t>
+  </si>
+  <si>
+    <t>RegistrationController</t>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/favorite</t>
+  </si>
+  <si>
+    <t>FavoriteController</t>
+  </si>
+  <si>
+    <t>MypageController</t>
+  </si>
+  <si>
+    <t>/review/thankyou</t>
+  </si>
+  <si>
+    <t>/review/{id}</t>
+  </si>
+  <si>
+    <t>/review</t>
+  </si>
+  <si>
+    <t>ReviewController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/shopmanage/delete</t>
+  </si>
+  <si>
+    <t>/shopmanage/{id}</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/shopmanage</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ShopmanageController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/user/roleup</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/user/roledown</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Areasテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Favoritesテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Genresテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Reservationstatusesテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Reservesテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Reviewsテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Rolesテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Shopsテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Usersテーブル操作用モデル</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/email/verify</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/email/verify/{id}/{hash}</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/email/verification-notification</t>
+  </si>
+  <si>
+    <t>/mail/send</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/mail/{id}</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>MailController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/checkin/{id}</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>/purchase/thankyou</t>
+  </si>
+  <si>
+    <t>CheckinController</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>CasherController</t>
+  </si>
+  <si>
+    <t>/purchase/{id}</t>
+  </si>
+  <si>
+    <t>/purchase</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約ありがとう画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約削除</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨヤクサクジョ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約変更画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>新規予約画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>thankyou</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>book_post</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ToShopOwner</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ToUser</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>支払の実行＋thankyou画面の表示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>支払い画面の表示</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>チェックイン画面</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>お気に入りのオンオフ</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>メールの送信</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ソウシｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>お知らせメール作成画面</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>マイページ画面</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シンキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約のデータベースへの反映</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ハンエイ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約一覧の表示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約一覧の日付検索</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>レビューありがとう画面</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>レビュー画面</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>レビューのDB登録</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>店舗情報の削除</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>店舗情報の表示</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>店舗新規作成画面の表示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シンキ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>店舗情報のDBへの登録</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>店舗オーナーへのロール変更</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ユーザーへのロール変更</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>LoginRequest</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ReserveRequest</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>number_of_people</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ShopRequest</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>genre_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>決済画面/ありがとう画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッサイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>新規登録画面/ありがとう画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約確認画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カクニｎ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>予約画面/ありがとう画面</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>レビュー画面/ありがとう画面</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>新規店舗作成画面/店舗情報編集画面</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シンキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>既知のエラー</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キチ </t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1400,7 +2053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1549,17 +2202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1607,12 +2249,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1694,13 +2436,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,7 +2457,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1733,58 +2472,141 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3261,18 +4083,18 @@
   </sheetPr>
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
-        <v>210</v>
+      <c r="B3" s="42" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +4113,7 @@
   <dimension ref="A1:F996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3302,194 +4124,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="B8" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="C9" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="C10" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="49" t="b">
+      <c r="B11" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="C12" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="C13" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="54" t="b">
+      <c r="B15" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="52" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="52" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="52" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="49" t="b">
+      <c r="C16" s="48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4502,146 +5327,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="61" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4652,8 +5477,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4662,8 +5487,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -4672,8 +5497,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4682,8 +5507,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="59" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="61" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4694,8 +5519,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -4704,8 +5529,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4714,8 +5539,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4724,8 +5549,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4734,8 +5559,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="61" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4746,8 +5571,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -4756,8 +5581,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4766,33 +5591,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -5771,14 +6596,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -5795,6 +6612,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5841,16 +6666,16 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>94</v>
@@ -5858,16 +6683,16 @@
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>97</v>
@@ -5875,16 +6700,16 @@
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>100</v>
@@ -5892,16 +6717,16 @@
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>102</v>
@@ -5909,16 +6734,16 @@
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>104</v>
@@ -5926,7 +6751,7 @@
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>92</v>
@@ -5935,15 +6760,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>281</v>
+        <v>244</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -5952,7 +6777,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>102</v>
@@ -5960,7 +6785,7 @@
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
@@ -5969,7 +6794,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>104</v>
@@ -5977,7 +6802,7 @@
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -5986,7 +6811,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>100</v>
@@ -5994,7 +6819,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>92</v>
@@ -6003,7 +6828,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>94</v>
@@ -6011,7 +6836,7 @@
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>95</v>
@@ -6020,7 +6845,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>97</v>
@@ -6028,7 +6853,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>98</v>
@@ -6037,7 +6862,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>97</v>
@@ -6045,7 +6870,7 @@
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>92</v>
@@ -6054,7 +6879,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>100</v>
@@ -6062,7 +6887,7 @@
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>95</v>
@@ -6071,7 +6896,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>94</v>
@@ -6079,7 +6904,7 @@
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
@@ -6088,7 +6913,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>104</v>
@@ -6096,16 +6921,16 @@
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>100</v>
@@ -6113,16 +6938,16 @@
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>94</v>
@@ -6130,7 +6955,7 @@
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -6139,7 +6964,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>97</v>
@@ -6147,7 +6972,7 @@
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>98</v>
@@ -6156,7 +6981,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>102</v>
@@ -6164,7 +6989,7 @@
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>95</v>
@@ -6173,7 +6998,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>94</v>
@@ -7326,175 +8151,175 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="49" t="b">
+      <c r="B2" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="49" t="b">
+      <c r="A3" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="47" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="49" t="b">
+      <c r="B4" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="49" t="b">
+      <c r="B5" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="49" t="b">
+      <c r="B6" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="49" t="b">
+      <c r="B7" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="49" t="b">
+      <c r="B8" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="49" t="b">
+      <c r="B9" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="49" t="b">
+      <c r="B10" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="49" t="b">
+      <c r="B11" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="49" t="b">
+      <c r="A12" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="49" t="b">
+      <c r="B13" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="B14" s="49" t="b">
+      <c r="A14" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="49" t="b">
+      <c r="B15" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="49" t="b">
+      <c r="B16" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7503,8 +8328,8 @@
     <row r="19" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H21" s="52" t="s">
-        <v>286</v>
+      <c r="H21" s="51" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8499,15 +9324,16 @@
   </sheetPr>
   <dimension ref="A1:F967"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="88" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView zoomScale="88" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8543,10 +9369,10 @@
         <v>150</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>144</v>
@@ -8555,7 +9381,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>150</v>
@@ -8566,7 +9392,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8664,7 +9490,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8695,10 +9521,10 @@
         <v>150</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>144</v>
@@ -8707,7 +9533,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>159</v>
@@ -8721,7 +9547,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>155</v>
@@ -8742,16 +9568,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>140</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -8762,17 +9588,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>289</v>
+      <c r="B21" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>281</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>144</v>
@@ -8780,60 +9606,60 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56" t="s">
-        <v>296</v>
+      <c r="A22" s="55" t="s">
+        <v>288</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="55" t="s">
         <v>289</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="56" t="s">
-        <v>297</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="29" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="29" t="s">
         <v>144</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="29" t="s">
         <v>144</v>
       </c>
@@ -8913,10 +9739,10 @@
         <v>150</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>144</v>
@@ -8925,7 +9751,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>159</v>
@@ -8994,10 +9820,10 @@
         <v>150</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>144</v>
@@ -9006,7 +9832,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>159</v>
@@ -9073,14 +9899,14 @@
       <c r="A46" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="57" t="s">
-        <v>298</v>
+      <c r="B46" s="56" t="s">
+        <v>290</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>144</v>
@@ -9120,7 +9946,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>150</v>
@@ -9131,7 +9957,7 @@
         <v>144</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9234,7 +10060,7 @@
         <v>150</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
@@ -9333,7 +10159,7 @@
         <v>150</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
@@ -9378,7 +10204,9 @@
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
+      <c r="E70" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9439,10 +10267,10 @@
         <v>150</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>144</v>
@@ -9451,13 +10279,15 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>159</v>
       </c>
       <c r="C77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="E77" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10386,7 +11216,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11406,18 +12236,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1023"/>
+  <dimension ref="A1:H1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="99" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="87" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11426,9 +12258,9 @@
       <c r="B1" s="34"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="E1" s="89"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11436,9 +12268,9 @@
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11448,9 +12280,9 @@
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11462,13 +12294,13 @@
       <c r="D4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="88" t="s">
         <v>179</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="88" t="s">
         <v>181</v>
       </c>
       <c r="H4" s="26" t="s">
@@ -11478,583 +12310,915 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="C5" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="22" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="C7" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="28" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="C8" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="28" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="29" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="28" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="28" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="C14" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="28" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="22" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="92"/>
+      <c r="F19" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="C20" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="C23" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" s="97"/>
+      <c r="F24" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="C25" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>336</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="69"/>
+      <c r="C27" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="104"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="85" t="s">
+        <v>281</v>
+      </c>
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="71"/>
+      <c r="C28" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" s="105"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="85" t="s">
+        <v>281</v>
+      </c>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="C29" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="C30" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="C31" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="90"/>
+      <c r="F31" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="C32" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="C33" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
-      <c r="B34" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="92"/>
+      <c r="F34" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="C35" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="81"/>
+      <c r="F35" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="89"/>
       <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="33"/>
+      <c r="B38" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="89"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="G38" s="83"/>
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="33"/>
+      <c r="C39" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="89"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="G39" s="83"/>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="33"/>
+      <c r="C40" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="33"/>
+      <c r="C41" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="89"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="G41" s="83"/>
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="33"/>
+      <c r="C42" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="89"/>
       <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="83"/>
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="33"/>
+      <c r="C43" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="C44" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
+      <c r="G45" s="83"/>
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="33"/>
+      <c r="C46" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" s="60"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="33"/>
+      <c r="C47" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
+      <c r="G47" s="83"/>
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="33"/>
+      <c r="C48" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="89"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="83"/>
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="33"/>
+      <c r="B49" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="33"/>
+      <c r="C50" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="89"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="83"/>
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="33"/>
+      <c r="C51" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="89"/>
       <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="33"/>
+      <c r="C52" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="83"/>
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="33"/>
+      <c r="C53" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="89"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="33"/>
+      <c r="C54" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="83"/>
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="33"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="33"/>
+      <c r="C56" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="89"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="33"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="33"/>
+      <c r="C57" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="33"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="33"/>
+      <c r="C58" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="33"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="33"/>
+      <c r="C59" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="89"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="33"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="33"/>
+      <c r="C60" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="89"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="83"/>
       <c r="H60" s="33"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="33"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="89"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="G61" s="83"/>
       <c r="H61" s="33"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12062,9 +13226,9 @@
       <c r="B62" s="34"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="89"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="83"/>
       <c r="H62" s="33"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12072,9 +13236,9 @@
       <c r="B63" s="34"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="E63" s="89"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
+      <c r="G63" s="83"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12082,258 +13246,205 @@
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="33"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="E65" s="89"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="33"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="60"/>
+      <c r="E66" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="F66" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="G66" s="64"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="64"/>
+      <c r="C67" s="108" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="109"/>
+      <c r="E67" s="96" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="G67" s="60"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="64"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G68" s="60"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="64"/>
+      <c r="C69" s="113" t="s">
+        <v>398</v>
+      </c>
+      <c r="D69" s="114"/>
+      <c r="E69" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G69" s="60"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" s="84"/>
-      <c r="G70" s="64"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="F70" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G70" s="60"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="71"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="F71" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" s="60"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="78"/>
-      <c r="G72" s="71"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="F72" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" s="60"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="64"/>
+      <c r="C73" s="113" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" s="114"/>
+      <c r="E73" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G73" s="60"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="64"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G74" s="60"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="64"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G75" s="60"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="64"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G76" s="60"/>
       <c r="H76" s="33"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="33"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="33"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="33"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="33"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="33"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="33"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="33"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13249,86 +14360,57 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
+  <mergeCells count="49">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="C69:D72"/>
+    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="F76:G76"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="C79:D81"/>
-    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="C73:D75"/>
-    <mergeCell ref="C76:D78"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13361,721 +14443,721 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="87" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="36">
+      <c r="E1" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="35">
         <f>ターム内容!$B5</f>
         <v>45058</v>
       </c>
-      <c r="H1" s="36">
+      <c r="H1" s="35">
         <f t="shared" ref="H1:BK1" si="0">G1+1</f>
         <v>45059</v>
       </c>
-      <c r="I1" s="36">
+      <c r="I1" s="35">
         <f t="shared" si="0"/>
         <v>45060</v>
       </c>
-      <c r="J1" s="36">
+      <c r="J1" s="35">
         <f t="shared" si="0"/>
         <v>45061</v>
       </c>
-      <c r="K1" s="36">
+      <c r="K1" s="35">
         <f t="shared" si="0"/>
         <v>45062</v>
       </c>
-      <c r="L1" s="36">
+      <c r="L1" s="35">
         <f t="shared" si="0"/>
         <v>45063</v>
       </c>
-      <c r="M1" s="36">
+      <c r="M1" s="35">
         <f t="shared" si="0"/>
         <v>45064</v>
       </c>
-      <c r="N1" s="36">
+      <c r="N1" s="35">
         <f t="shared" si="0"/>
         <v>45065</v>
       </c>
-      <c r="O1" s="36">
+      <c r="O1" s="35">
         <f t="shared" si="0"/>
         <v>45066</v>
       </c>
-      <c r="P1" s="36">
+      <c r="P1" s="35">
         <f t="shared" si="0"/>
         <v>45067</v>
       </c>
-      <c r="Q1" s="36">
+      <c r="Q1" s="35">
         <f t="shared" si="0"/>
         <v>45068</v>
       </c>
-      <c r="R1" s="36">
+      <c r="R1" s="35">
         <f t="shared" si="0"/>
         <v>45069</v>
       </c>
-      <c r="S1" s="36">
+      <c r="S1" s="35">
         <f t="shared" si="0"/>
         <v>45070</v>
       </c>
-      <c r="T1" s="36">
+      <c r="T1" s="35">
         <f t="shared" si="0"/>
         <v>45071</v>
       </c>
-      <c r="U1" s="36">
+      <c r="U1" s="35">
         <f t="shared" si="0"/>
         <v>45072</v>
       </c>
-      <c r="V1" s="36">
+      <c r="V1" s="35">
         <f t="shared" si="0"/>
         <v>45073</v>
       </c>
-      <c r="W1" s="36">
+      <c r="W1" s="35">
         <f t="shared" si="0"/>
         <v>45074</v>
       </c>
-      <c r="X1" s="36">
+      <c r="X1" s="35">
         <f t="shared" si="0"/>
         <v>45075</v>
       </c>
-      <c r="Y1" s="36">
+      <c r="Y1" s="35">
         <f t="shared" si="0"/>
         <v>45076</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="Z1" s="35">
         <f t="shared" si="0"/>
         <v>45077</v>
       </c>
-      <c r="AA1" s="36">
+      <c r="AA1" s="35">
         <f t="shared" si="0"/>
         <v>45078</v>
       </c>
-      <c r="AB1" s="36">
+      <c r="AB1" s="35">
         <f t="shared" si="0"/>
         <v>45079</v>
       </c>
-      <c r="AC1" s="36">
+      <c r="AC1" s="35">
         <f t="shared" si="0"/>
         <v>45080</v>
       </c>
-      <c r="AD1" s="36">
+      <c r="AD1" s="35">
         <f t="shared" si="0"/>
         <v>45081</v>
       </c>
-      <c r="AE1" s="36">
+      <c r="AE1" s="35">
         <f t="shared" si="0"/>
         <v>45082</v>
       </c>
-      <c r="AF1" s="36">
+      <c r="AF1" s="35">
         <f t="shared" si="0"/>
         <v>45083</v>
       </c>
-      <c r="AG1" s="36">
+      <c r="AG1" s="35">
         <f t="shared" si="0"/>
         <v>45084</v>
       </c>
-      <c r="AH1" s="36">
+      <c r="AH1" s="35">
         <f t="shared" si="0"/>
         <v>45085</v>
       </c>
-      <c r="AI1" s="36">
+      <c r="AI1" s="35">
         <f t="shared" si="0"/>
         <v>45086</v>
       </c>
-      <c r="AJ1" s="36">
+      <c r="AJ1" s="35">
         <f t="shared" si="0"/>
         <v>45087</v>
       </c>
-      <c r="AK1" s="36">
+      <c r="AK1" s="35">
         <f t="shared" si="0"/>
         <v>45088</v>
       </c>
-      <c r="AL1" s="36">
+      <c r="AL1" s="35">
         <f t="shared" si="0"/>
         <v>45089</v>
       </c>
-      <c r="AM1" s="36">
+      <c r="AM1" s="35">
         <f t="shared" si="0"/>
         <v>45090</v>
       </c>
-      <c r="AN1" s="36">
+      <c r="AN1" s="35">
         <f t="shared" si="0"/>
         <v>45091</v>
       </c>
-      <c r="AO1" s="36">
+      <c r="AO1" s="35">
         <f t="shared" si="0"/>
         <v>45092</v>
       </c>
-      <c r="AP1" s="36">
+      <c r="AP1" s="35">
         <f t="shared" si="0"/>
         <v>45093</v>
       </c>
-      <c r="AQ1" s="36">
+      <c r="AQ1" s="35">
         <f t="shared" si="0"/>
         <v>45094</v>
       </c>
-      <c r="AR1" s="36">
+      <c r="AR1" s="35">
         <f t="shared" si="0"/>
         <v>45095</v>
       </c>
-      <c r="AS1" s="36">
+      <c r="AS1" s="35">
         <f t="shared" si="0"/>
         <v>45096</v>
       </c>
-      <c r="AT1" s="36">
+      <c r="AT1" s="35">
         <f t="shared" si="0"/>
         <v>45097</v>
       </c>
-      <c r="AU1" s="36">
+      <c r="AU1" s="35">
         <f t="shared" si="0"/>
         <v>45098</v>
       </c>
-      <c r="AV1" s="36">
+      <c r="AV1" s="35">
         <f t="shared" si="0"/>
         <v>45099</v>
       </c>
-      <c r="AW1" s="36">
+      <c r="AW1" s="35">
         <f t="shared" si="0"/>
         <v>45100</v>
       </c>
-      <c r="AX1" s="36">
+      <c r="AX1" s="35">
         <f t="shared" si="0"/>
         <v>45101</v>
       </c>
-      <c r="AY1" s="36">
+      <c r="AY1" s="35">
         <f t="shared" si="0"/>
         <v>45102</v>
       </c>
-      <c r="AZ1" s="36">
+      <c r="AZ1" s="35">
         <f t="shared" si="0"/>
         <v>45103</v>
       </c>
-      <c r="BA1" s="36">
+      <c r="BA1" s="35">
         <f t="shared" si="0"/>
         <v>45104</v>
       </c>
-      <c r="BB1" s="36">
+      <c r="BB1" s="35">
         <f t="shared" si="0"/>
         <v>45105</v>
       </c>
-      <c r="BC1" s="36">
+      <c r="BC1" s="35">
         <f t="shared" si="0"/>
         <v>45106</v>
       </c>
-      <c r="BD1" s="36">
+      <c r="BD1" s="35">
         <f t="shared" si="0"/>
         <v>45107</v>
       </c>
-      <c r="BE1" s="36">
+      <c r="BE1" s="35">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
-      <c r="BF1" s="36">
+      <c r="BF1" s="35">
         <f t="shared" si="0"/>
         <v>45109</v>
       </c>
-      <c r="BG1" s="36">
+      <c r="BG1" s="35">
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="BH1" s="36">
+      <c r="BH1" s="35">
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="BI1" s="36">
+      <c r="BI1" s="35">
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="BJ1" s="36">
+      <c r="BJ1" s="35">
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="BK1" s="36">
+      <c r="BK1" s="35">
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="37" t="str">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="36" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="H2" s="37" t="str">
+      <c r="H2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="I2" s="37" t="str">
+      <c r="I2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="J2" s="37" t="str">
+      <c r="J2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="K2" s="37" t="str">
+      <c r="K2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="L2" s="37" t="str">
+      <c r="L2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="M2" s="37" t="str">
+      <c r="M2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="N2" s="37" t="str">
+      <c r="N2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="O2" s="37" t="str">
+      <c r="O2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="P2" s="37" t="str">
+      <c r="P2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="Q2" s="37" t="str">
+      <c r="Q2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="R2" s="37" t="str">
+      <c r="R2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="S2" s="37" t="str">
+      <c r="S2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="T2" s="37" t="str">
+      <c r="T2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="U2" s="37" t="str">
+      <c r="U2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="V2" s="37" t="str">
+      <c r="V2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="W2" s="37" t="str">
+      <c r="W2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="X2" s="37" t="str">
+      <c r="X2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="Y2" s="37" t="str">
+      <c r="Y2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="Z2" s="37" t="str">
+      <c r="Z2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="AA2" s="37" t="str">
+      <c r="AA2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="AB2" s="37" t="str">
+      <c r="AB2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="37" t="str">
+      <c r="AC2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="AD2" s="37" t="str">
+      <c r="AD2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="AE2" s="37" t="str">
+      <c r="AE2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="AF2" s="37" t="str">
+      <c r="AF2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="AG2" s="37" t="str">
+      <c r="AG2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="AH2" s="37" t="str">
+      <c r="AH2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="AI2" s="37" t="str">
+      <c r="AI2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="AJ2" s="37" t="str">
+      <c r="AJ2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="AK2" s="37" t="str">
+      <c r="AK2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="AL2" s="37" t="str">
+      <c r="AL2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="AM2" s="37" t="str">
+      <c r="AM2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="AN2" s="37" t="str">
+      <c r="AN2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="AO2" s="37" t="str">
+      <c r="AO2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="AP2" s="37" t="str">
+      <c r="AP2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="AQ2" s="37" t="str">
+      <c r="AQ2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="AR2" s="37" t="str">
+      <c r="AR2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="AS2" s="37" t="str">
+      <c r="AS2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="AT2" s="37" t="str">
+      <c r="AT2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="AU2" s="37" t="str">
+      <c r="AU2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="AV2" s="37" t="str">
+      <c r="AV2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="AW2" s="37" t="str">
+      <c r="AW2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="AX2" s="37" t="str">
+      <c r="AX2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="AY2" s="37" t="str">
+      <c r="AY2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="AZ2" s="37" t="str">
+      <c r="AZ2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="BA2" s="37" t="str">
+      <c r="BA2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="BB2" s="37" t="str">
+      <c r="BB2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="BC2" s="37" t="str">
+      <c r="BC2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="BD2" s="37" t="str">
+      <c r="BD2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
-      <c r="BE2" s="37" t="str">
+      <c r="BE2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
       </c>
-      <c r="BF2" s="37" t="str">
+      <c r="BF2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
       </c>
-      <c r="BG2" s="37" t="str">
+      <c r="BG2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="BH2" s="37" t="str">
+      <c r="BH2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
       </c>
-      <c r="BI2" s="37" t="str">
+      <c r="BI2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
       </c>
-      <c r="BJ2" s="37" t="str">
+      <c r="BJ2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="BK2" s="37" t="str">
+      <c r="BK2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="38" t="str">
+      <c r="A3" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="37" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H3" s="38" t="str">
+      <c r="H3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I3" s="38" t="str">
+      <c r="I3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J3" s="38" t="str">
+      <c r="J3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K3" s="38" t="str">
+      <c r="K3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L3" s="38" t="str">
+      <c r="L3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M3" s="38" t="str">
+      <c r="M3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N3" s="38" t="str">
+      <c r="N3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O3" s="38" t="str">
+      <c r="O3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P3" s="38" t="str">
+      <c r="P3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q3" s="38" t="str">
+      <c r="Q3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R3" s="38" t="str">
+      <c r="R3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S3" s="38" t="str">
+      <c r="S3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T3" s="38" t="str">
+      <c r="T3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U3" s="38" t="str">
+      <c r="U3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V3" s="38" t="str">
+      <c r="V3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W3" s="38" t="str">
+      <c r="W3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X3" s="38" t="str">
+      <c r="X3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y3" s="38" t="str">
+      <c r="Y3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z3" s="38" t="str">
+      <c r="Z3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA3" s="38" t="str">
+      <c r="AA3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB3" s="38" t="str">
+      <c r="AB3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC3" s="38" t="str">
+      <c r="AC3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD3" s="38" t="str">
+      <c r="AD3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE3" s="38" t="str">
+      <c r="AE3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF3" s="38" t="str">
+      <c r="AF3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG3" s="38" t="str">
+      <c r="AG3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AH3" s="38" t="str">
+      <c r="AH3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI3" s="38" t="str">
+      <c r="AI3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ3" s="38" t="str">
+      <c r="AJ3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AK3" s="38" t="str">
+      <c r="AK3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL3" s="38" t="str">
+      <c r="AL3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AM3" s="38" t="str">
+      <c r="AM3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AN3" s="38" t="str">
+      <c r="AN3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AO3" s="38" t="str">
+      <c r="AO3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP3" s="38" t="str">
+      <c r="AP3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ3" s="38" t="str">
+      <c r="AQ3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AR3" s="38" t="str">
+      <c r="AR3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AS3" s="38" t="str">
+      <c r="AS3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AT3" s="38" t="str">
+      <c r="AT3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU3" s="38" t="str">
+      <c r="AU3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV3" s="38" t="str">
+      <c r="AV3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AW3" s="38" t="str">
+      <c r="AW3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX3" s="38" t="str">
+      <c r="AX3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AY3" s="38" t="str">
+      <c r="AY3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AZ3" s="38" t="str">
+      <c r="AZ3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BA3" s="38" t="str">
+      <c r="BA3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BB3" s="38" t="str">
+      <c r="BB3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BC3" s="38" t="str">
+      <c r="BC3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BD3" s="38" t="str">
+      <c r="BD3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BE3" s="38" t="str">
+      <c r="BE3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BF3" s="38" t="str">
+      <c r="BF3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BG3" s="38" t="str">
+      <c r="BG3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BH3" s="38" t="str">
+      <c r="BH3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BI3" s="38" t="str">
+      <c r="BI3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BJ3" s="38" t="str">
+      <c r="BJ3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BK3" s="38" t="str">
+      <c r="BK3" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -14085,248 +15167,248 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ターム内容!$B7</f>
         <v>田中</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <f>G1</f>
         <v>45058</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <f t="shared" ref="E4:E7" si="3">D4+F4-1</f>
         <v>45064</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>7</v>
       </c>
-      <c r="G4" s="41" t="str">
+      <c r="G4" s="40" t="str">
         <f t="shared" ref="G4:BK4" si="4">IF(AND($D4&lt;=G$1,$E4&gt;=G$1),"●","")</f>
         <v>●</v>
       </c>
-      <c r="H4" s="41" t="str">
+      <c r="H4" s="40" t="str">
         <f t="shared" si="4"/>
         <v>●</v>
       </c>
-      <c r="I4" s="41" t="str">
+      <c r="I4" s="40" t="str">
         <f t="shared" si="4"/>
         <v>●</v>
       </c>
-      <c r="J4" s="41" t="str">
+      <c r="J4" s="40" t="str">
         <f t="shared" si="4"/>
         <v>●</v>
       </c>
-      <c r="K4" s="41" t="str">
+      <c r="K4" s="40" t="str">
         <f t="shared" si="4"/>
         <v>●</v>
       </c>
-      <c r="L4" s="41" t="str">
+      <c r="L4" s="40" t="str">
         <f t="shared" si="4"/>
         <v>●</v>
       </c>
-      <c r="M4" s="41" t="str">
+      <c r="M4" s="40" t="str">
         <f t="shared" si="4"/>
         <v>●</v>
       </c>
-      <c r="N4" s="41" t="str">
+      <c r="N4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O4" s="41" t="str">
+      <c r="O4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P4" s="41" t="str">
+      <c r="P4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q4" s="41" t="str">
+      <c r="Q4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R4" s="41" t="str">
+      <c r="R4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S4" s="41" t="str">
+      <c r="S4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T4" s="41" t="str">
+      <c r="T4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U4" s="41" t="str">
+      <c r="U4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V4" s="41" t="str">
+      <c r="V4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W4" s="41" t="str">
+      <c r="W4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X4" s="41" t="str">
+      <c r="X4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Y4" s="41" t="str">
+      <c r="Y4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z4" s="41" t="str">
+      <c r="Z4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AA4" s="41" t="str">
+      <c r="AA4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AB4" s="41" t="str">
+      <c r="AB4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AC4" s="41" t="str">
+      <c r="AC4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD4" s="41" t="str">
+      <c r="AD4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE4" s="41" t="str">
+      <c r="AE4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AF4" s="41" t="str">
+      <c r="AF4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AG4" s="41" t="str">
+      <c r="AG4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AH4" s="41" t="str">
+      <c r="AH4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI4" s="41" t="str">
+      <c r="AI4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ4" s="41" t="str">
+      <c r="AJ4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK4" s="41" t="str">
+      <c r="AK4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL4" s="41" t="str">
+      <c r="AL4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AM4" s="41" t="str">
+      <c r="AM4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AN4" s="41" t="str">
+      <c r="AN4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AO4" s="41" t="str">
+      <c r="AO4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP4" s="41" t="str">
+      <c r="AP4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AQ4" s="41" t="str">
+      <c r="AQ4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR4" s="41" t="str">
+      <c r="AR4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AS4" s="41" t="str">
+      <c r="AS4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AT4" s="41" t="str">
+      <c r="AT4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU4" s="41" t="str">
+      <c r="AU4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AV4" s="41" t="str">
+      <c r="AV4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AW4" s="41" t="str">
+      <c r="AW4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AX4" s="41" t="str">
+      <c r="AX4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AY4" s="41" t="str">
+      <c r="AY4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ4" s="41" t="str">
+      <c r="AZ4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BA4" s="41" t="str">
+      <c r="BA4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BB4" s="41" t="str">
+      <c r="BB4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BC4" s="41" t="str">
+      <c r="BC4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BD4" s="41" t="str">
+      <c r="BD4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BE4" s="41" t="str">
+      <c r="BE4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BF4" s="41" t="str">
+      <c r="BF4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BG4" s="41" t="str">
+      <c r="BG4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BH4" s="41" t="str">
+      <c r="BH4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BI4" s="41" t="str">
+      <c r="BI4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BJ4" s="41" t="str">
+      <c r="BJ4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BK4" s="41" t="str">
+      <c r="BK4" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -14336,248 +15418,248 @@
         <v>0</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>ターム内容!$B7</f>
         <v>田中</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <f>D4</f>
         <v>45058</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <f t="shared" si="3"/>
         <v>45064</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>7</v>
       </c>
-      <c r="G5" s="41" t="str">
+      <c r="G5" s="40" t="str">
         <f t="shared" ref="G5:BK5" si="5">IF(AND($D5&lt;=G$1,$E5&gt;=G$1),"●","")</f>
         <v>●</v>
       </c>
-      <c r="H5" s="41" t="str">
+      <c r="H5" s="40" t="str">
         <f t="shared" si="5"/>
         <v>●</v>
       </c>
-      <c r="I5" s="41" t="str">
+      <c r="I5" s="40" t="str">
         <f t="shared" si="5"/>
         <v>●</v>
       </c>
-      <c r="J5" s="41" t="str">
+      <c r="J5" s="40" t="str">
         <f t="shared" si="5"/>
         <v>●</v>
       </c>
-      <c r="K5" s="41" t="str">
+      <c r="K5" s="40" t="str">
         <f t="shared" si="5"/>
         <v>●</v>
       </c>
-      <c r="L5" s="41" t="str">
+      <c r="L5" s="40" t="str">
         <f t="shared" si="5"/>
         <v>●</v>
       </c>
-      <c r="M5" s="41" t="str">
+      <c r="M5" s="40" t="str">
         <f t="shared" si="5"/>
         <v>●</v>
       </c>
-      <c r="N5" s="41" t="str">
+      <c r="N5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O5" s="41" t="str">
+      <c r="O5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P5" s="41" t="str">
+      <c r="P5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q5" s="41" t="str">
+      <c r="Q5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R5" s="41" t="str">
+      <c r="R5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S5" s="41" t="str">
+      <c r="S5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="T5" s="41" t="str">
+      <c r="T5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U5" s="41" t="str">
+      <c r="U5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V5" s="41" t="str">
+      <c r="V5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="W5" s="41" t="str">
+      <c r="W5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X5" s="41" t="str">
+      <c r="X5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y5" s="41" t="str">
+      <c r="Y5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z5" s="41" t="str">
+      <c r="Z5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AA5" s="41" t="str">
+      <c r="AA5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AB5" s="41" t="str">
+      <c r="AB5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC5" s="41" t="str">
+      <c r="AC5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD5" s="41" t="str">
+      <c r="AD5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AE5" s="41" t="str">
+      <c r="AE5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AF5" s="41" t="str">
+      <c r="AF5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AG5" s="41" t="str">
+      <c r="AG5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AH5" s="41" t="str">
+      <c r="AH5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AI5" s="41" t="str">
+      <c r="AI5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ5" s="41" t="str">
+      <c r="AJ5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AK5" s="41" t="str">
+      <c r="AK5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AL5" s="41" t="str">
+      <c r="AL5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AM5" s="41" t="str">
+      <c r="AM5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AN5" s="41" t="str">
+      <c r="AN5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO5" s="41" t="str">
+      <c r="AO5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AP5" s="41" t="str">
+      <c r="AP5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AQ5" s="41" t="str">
+      <c r="AQ5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AR5" s="41" t="str">
+      <c r="AR5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AS5" s="41" t="str">
+      <c r="AS5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AT5" s="41" t="str">
+      <c r="AT5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AU5" s="41" t="str">
+      <c r="AU5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AV5" s="41" t="str">
+      <c r="AV5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AW5" s="41" t="str">
+      <c r="AW5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AX5" s="41" t="str">
+      <c r="AX5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AY5" s="41" t="str">
+      <c r="AY5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AZ5" s="41" t="str">
+      <c r="AZ5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA5" s="41" t="str">
+      <c r="BA5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BB5" s="41" t="str">
+      <c r="BB5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BC5" s="41" t="str">
+      <c r="BC5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BD5" s="41" t="str">
+      <c r="BD5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BE5" s="41" t="str">
+      <c r="BE5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BF5" s="41" t="str">
+      <c r="BF5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BG5" s="41" t="str">
+      <c r="BG5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BH5" s="41" t="str">
+      <c r="BH5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BI5" s="41" t="str">
+      <c r="BI5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BJ5" s="41" t="str">
+      <c r="BJ5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BK5" s="41" t="str">
+      <c r="BK5" s="40" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14587,248 +15669,248 @@
         <v>0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>ターム内容!$B8</f>
         <v>岩崎</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <f>E4+1</f>
         <v>45065</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <f t="shared" si="3"/>
         <v>45065</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>1</v>
       </c>
-      <c r="G6" s="41" t="str">
+      <c r="G6" s="40" t="str">
         <f t="shared" ref="G6:BK6" si="6">IF(AND($D6&lt;=G$1,$E6&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H6" s="41" t="str">
+      <c r="H6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="J6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L6" s="41" t="str">
+      <c r="L6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N6" s="41" t="str">
+      <c r="N6" s="40" t="str">
         <f t="shared" si="6"/>
         <v>●</v>
       </c>
-      <c r="O6" s="41" t="str">
+      <c r="O6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R6" s="41" t="str">
+      <c r="R6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S6" s="41" t="str">
+      <c r="S6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T6" s="41" t="str">
+      <c r="T6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="U6" s="41" t="str">
+      <c r="U6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="V6" s="41" t="str">
+      <c r="V6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W6" s="41" t="str">
+      <c r="W6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X6" s="41" t="str">
+      <c r="X6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Y6" s="41" t="str">
+      <c r="Y6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z6" s="41" t="str">
+      <c r="Z6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA6" s="41" t="str">
+      <c r="AA6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB6" s="41" t="str">
+      <c r="AB6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AC6" s="41" t="str">
+      <c r="AC6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AD6" s="41" t="str">
+      <c r="AD6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AE6" s="41" t="str">
+      <c r="AE6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AF6" s="41" t="str">
+      <c r="AF6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG6" s="41" t="str">
+      <c r="AG6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH6" s="41" t="str">
+      <c r="AH6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI6" s="41" t="str">
+      <c r="AI6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AJ6" s="41" t="str">
+      <c r="AJ6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK6" s="41" t="str">
+      <c r="AK6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AL6" s="41" t="str">
+      <c r="AL6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AM6" s="41" t="str">
+      <c r="AM6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AN6" s="41" t="str">
+      <c r="AN6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AO6" s="41" t="str">
+      <c r="AO6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP6" s="41" t="str">
+      <c r="AP6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AQ6" s="41" t="str">
+      <c r="AQ6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AR6" s="41" t="str">
+      <c r="AR6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AS6" s="41" t="str">
+      <c r="AS6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AT6" s="41" t="str">
+      <c r="AT6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AU6" s="41" t="str">
+      <c r="AU6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AV6" s="41" t="str">
+      <c r="AV6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AW6" s="41" t="str">
+      <c r="AW6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AX6" s="41" t="str">
+      <c r="AX6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AY6" s="41" t="str">
+      <c r="AY6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AZ6" s="41" t="str">
+      <c r="AZ6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BA6" s="41" t="str">
+      <c r="BA6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB6" s="41" t="str">
+      <c r="BB6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BC6" s="41" t="str">
+      <c r="BC6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BD6" s="41" t="str">
+      <c r="BD6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BE6" s="41" t="str">
+      <c r="BE6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BF6" s="41" t="str">
+      <c r="BF6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BG6" s="41" t="str">
+      <c r="BG6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BH6" s="41" t="str">
+      <c r="BH6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BI6" s="41" t="str">
+      <c r="BI6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BJ6" s="41" t="str">
+      <c r="BJ6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BK6" s="41" t="str">
+      <c r="BK6" s="40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -14838,486 +15920,486 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>ターム内容!$B8</f>
         <v>岩崎</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <f>D6</f>
         <v>45065</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <f t="shared" si="3"/>
         <v>45065</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>1</v>
       </c>
-      <c r="G7" s="41" t="str">
+      <c r="G7" s="40" t="str">
         <f t="shared" ref="G7:BK7" si="7">IF(AND($D7&lt;=G$1,$E7&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H7" s="41" t="str">
+      <c r="H7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I7" s="41" t="str">
+      <c r="I7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J7" s="41" t="str">
+      <c r="J7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K7" s="41" t="str">
+      <c r="K7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L7" s="41" t="str">
+      <c r="L7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M7" s="41" t="str">
+      <c r="M7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N7" s="41" t="str">
+      <c r="N7" s="40" t="str">
         <f t="shared" si="7"/>
         <v>●</v>
       </c>
-      <c r="O7" s="41" t="str">
+      <c r="O7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P7" s="41" t="str">
+      <c r="P7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R7" s="41" t="str">
+      <c r="R7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S7" s="41" t="str">
+      <c r="S7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T7" s="41" t="str">
+      <c r="T7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U7" s="41" t="str">
+      <c r="U7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V7" s="41" t="str">
+      <c r="V7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W7" s="41" t="str">
+      <c r="W7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X7" s="41" t="str">
+      <c r="X7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y7" s="41" t="str">
+      <c r="Y7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z7" s="41" t="str">
+      <c r="Z7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA7" s="41" t="str">
+      <c r="AA7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB7" s="41" t="str">
+      <c r="AB7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC7" s="41" t="str">
+      <c r="AC7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AD7" s="41" t="str">
+      <c r="AD7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE7" s="41" t="str">
+      <c r="AE7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AF7" s="41" t="str">
+      <c r="AF7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AG7" s="41" t="str">
+      <c r="AG7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AH7" s="41" t="str">
+      <c r="AH7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AI7" s="41" t="str">
+      <c r="AI7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AJ7" s="41" t="str">
+      <c r="AJ7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AK7" s="41" t="str">
+      <c r="AK7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL7" s="41" t="str">
+      <c r="AL7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AM7" s="41" t="str">
+      <c r="AM7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AN7" s="41" t="str">
+      <c r="AN7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AO7" s="41" t="str">
+      <c r="AO7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AP7" s="41" t="str">
+      <c r="AP7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AQ7" s="41" t="str">
+      <c r="AQ7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AR7" s="41" t="str">
+      <c r="AR7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AS7" s="41" t="str">
+      <c r="AS7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AT7" s="41" t="str">
+      <c r="AT7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AU7" s="41" t="str">
+      <c r="AU7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AV7" s="41" t="str">
+      <c r="AV7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AW7" s="41" t="str">
+      <c r="AW7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AX7" s="41" t="str">
+      <c r="AX7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AY7" s="41" t="str">
+      <c r="AY7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AZ7" s="41" t="str">
+      <c r="AZ7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BA7" s="41" t="str">
+      <c r="BA7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BB7" s="41" t="str">
+      <c r="BB7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC7" s="41" t="str">
+      <c r="BC7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BD7" s="41" t="str">
+      <c r="BD7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BE7" s="41" t="str">
+      <c r="BE7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BF7" s="41" t="str">
+      <c r="BF7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BG7" s="41" t="str">
+      <c r="BG7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BH7" s="41" t="str">
+      <c r="BH7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BI7" s="41" t="str">
+      <c r="BI7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BJ7" s="41" t="str">
+      <c r="BJ7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BK7" s="41" t="str">
+      <c r="BK7" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="38" t="str">
+      <c r="A8" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="37" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H8" s="38" t="str">
+      <c r="H8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I8" s="38" t="str">
+      <c r="I8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J8" s="38" t="str">
+      <c r="J8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K8" s="38" t="str">
+      <c r="K8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L8" s="38" t="str">
+      <c r="L8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M8" s="38" t="str">
+      <c r="M8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N8" s="38" t="str">
+      <c r="N8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O8" s="38" t="str">
+      <c r="O8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P8" s="38" t="str">
+      <c r="P8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q8" s="38" t="str">
+      <c r="Q8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R8" s="38" t="str">
+      <c r="R8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S8" s="38" t="str">
+      <c r="S8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="T8" s="38" t="str">
+      <c r="T8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U8" s="38" t="str">
+      <c r="U8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V8" s="38" t="str">
+      <c r="V8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="W8" s="38" t="str">
+      <c r="W8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X8" s="38" t="str">
+      <c r="X8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y8" s="38" t="str">
+      <c r="Y8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z8" s="38" t="str">
+      <c r="Z8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA8" s="38" t="str">
+      <c r="AA8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AB8" s="38" t="str">
+      <c r="AB8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AC8" s="38" t="str">
+      <c r="AC8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD8" s="38" t="str">
+      <c r="AD8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AE8" s="38" t="str">
+      <c r="AE8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AF8" s="38" t="str">
+      <c r="AF8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AG8" s="38" t="str">
+      <c r="AG8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AH8" s="38" t="str">
+      <c r="AH8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AI8" s="38" t="str">
+      <c r="AI8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ8" s="38" t="str">
+      <c r="AJ8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AK8" s="38" t="str">
+      <c r="AK8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL8" s="38" t="str">
+      <c r="AL8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM8" s="38" t="str">
+      <c r="AM8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AN8" s="38" t="str">
+      <c r="AN8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AO8" s="38" t="str">
+      <c r="AO8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AP8" s="38" t="str">
+      <c r="AP8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AQ8" s="38" t="str">
+      <c r="AQ8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AR8" s="38" t="str">
+      <c r="AR8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AS8" s="38" t="str">
+      <c r="AS8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT8" s="38" t="str">
+      <c r="AT8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU8" s="38" t="str">
+      <c r="AU8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AV8" s="38" t="str">
+      <c r="AV8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AW8" s="38" t="str">
+      <c r="AW8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AX8" s="38" t="str">
+      <c r="AX8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AY8" s="38" t="str">
+      <c r="AY8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AZ8" s="38" t="str">
+      <c r="AZ8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BA8" s="38" t="str">
+      <c r="BA8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BB8" s="38" t="str">
+      <c r="BB8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BC8" s="38" t="str">
+      <c r="BC8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD8" s="38" t="str">
+      <c r="BD8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BE8" s="38" t="str">
+      <c r="BE8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BF8" s="38" t="str">
+      <c r="BF8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BG8" s="38" t="str">
+      <c r="BG8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BH8" s="38" t="str">
+      <c r="BH8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BI8" s="38" t="str">
+      <c r="BI8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BJ8" s="38" t="str">
+      <c r="BJ8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BK8" s="38" t="str">
+      <c r="BK8" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -15327,486 +16409,486 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>ターム内容!$B7</f>
         <v>田中</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <f>E7+1</f>
         <v>45066</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <f>D9+F9-1</f>
         <v>45107</v>
       </c>
       <c r="F9" s="22">
         <v>42</v>
       </c>
-      <c r="G9" s="41" t="str">
+      <c r="G9" s="40" t="str">
         <f t="shared" ref="G9:BK9" si="9">IF(AND($D9&lt;=G$1,$E9&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H9" s="41" t="str">
+      <c r="H9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I9" s="41" t="str">
+      <c r="I9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J9" s="41" t="str">
+      <c r="J9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K9" s="41" t="str">
+      <c r="K9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L9" s="41" t="str">
+      <c r="L9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M9" s="41" t="str">
+      <c r="M9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N9" s="41" t="str">
+      <c r="N9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O9" s="41" t="str">
+      <c r="O9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="P9" s="41" t="str">
+      <c r="P9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="Q9" s="41" t="str">
+      <c r="Q9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="R9" s="41" t="str">
+      <c r="R9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="S9" s="41" t="str">
+      <c r="S9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="T9" s="41" t="str">
+      <c r="T9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="U9" s="41" t="str">
+      <c r="U9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="V9" s="41" t="str">
+      <c r="V9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="W9" s="41" t="str">
+      <c r="W9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="X9" s="41" t="str">
+      <c r="X9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="Y9" s="41" t="str">
+      <c r="Y9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="Z9" s="41" t="str">
+      <c r="Z9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AA9" s="41" t="str">
+      <c r="AA9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AB9" s="41" t="str">
+      <c r="AB9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AC9" s="41" t="str">
+      <c r="AC9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AD9" s="41" t="str">
+      <c r="AD9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AE9" s="41" t="str">
+      <c r="AE9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AF9" s="41" t="str">
+      <c r="AF9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AG9" s="41" t="str">
+      <c r="AG9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AH9" s="41" t="str">
+      <c r="AH9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AI9" s="41" t="str">
+      <c r="AI9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AJ9" s="41" t="str">
+      <c r="AJ9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AK9" s="41" t="str">
+      <c r="AK9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AL9" s="41" t="str">
+      <c r="AL9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AM9" s="41" t="str">
+      <c r="AM9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AN9" s="41" t="str">
+      <c r="AN9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AO9" s="41" t="str">
+      <c r="AO9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AP9" s="41" t="str">
+      <c r="AP9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AQ9" s="41" t="str">
+      <c r="AQ9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AR9" s="41" t="str">
+      <c r="AR9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AS9" s="41" t="str">
+      <c r="AS9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AT9" s="41" t="str">
+      <c r="AT9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AU9" s="41" t="str">
+      <c r="AU9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AV9" s="41" t="str">
+      <c r="AV9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AW9" s="41" t="str">
+      <c r="AW9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AX9" s="41" t="str">
+      <c r="AX9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AY9" s="41" t="str">
+      <c r="AY9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="AZ9" s="41" t="str">
+      <c r="AZ9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="BA9" s="41" t="str">
+      <c r="BA9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="BB9" s="41" t="str">
+      <c r="BB9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="BC9" s="41" t="str">
+      <c r="BC9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="BD9" s="41" t="str">
+      <c r="BD9" s="40" t="str">
         <f t="shared" si="9"/>
         <v>●</v>
       </c>
-      <c r="BE9" s="41" t="str">
+      <c r="BE9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BF9" s="41" t="str">
+      <c r="BF9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BG9" s="41" t="str">
+      <c r="BG9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BH9" s="41" t="str">
+      <c r="BH9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BI9" s="41" t="str">
+      <c r="BI9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BJ9" s="41" t="str">
+      <c r="BJ9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BK9" s="41" t="str">
+      <c r="BK9" s="40" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="38" t="str">
+      <c r="A10" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="37" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H10" s="38" t="str">
+      <c r="H10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I10" s="38" t="str">
+      <c r="I10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J10" s="38" t="str">
+      <c r="J10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L10" s="38" t="str">
+      <c r="L10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M10" s="38" t="str">
+      <c r="M10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N10" s="38" t="str">
+      <c r="N10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O10" s="38" t="str">
+      <c r="O10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P10" s="38" t="str">
+      <c r="P10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q10" s="38" t="str">
+      <c r="Q10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="R10" s="38" t="str">
+      <c r="R10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="S10" s="38" t="str">
+      <c r="S10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="T10" s="38" t="str">
+      <c r="T10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U10" s="38" t="str">
+      <c r="U10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V10" s="38" t="str">
+      <c r="V10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="W10" s="38" t="str">
+      <c r="W10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X10" s="38" t="str">
+      <c r="X10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y10" s="38" t="str">
+      <c r="Y10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Z10" s="38" t="str">
+      <c r="Z10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA10" s="38" t="str">
+      <c r="AA10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB10" s="38" t="str">
+      <c r="AB10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AC10" s="38" t="str">
+      <c r="AC10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AD10" s="38" t="str">
+      <c r="AD10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AE10" s="38" t="str">
+      <c r="AE10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF10" s="38" t="str">
+      <c r="AF10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AG10" s="38" t="str">
+      <c r="AG10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH10" s="38" t="str">
+      <c r="AH10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AI10" s="38" t="str">
+      <c r="AI10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ10" s="38" t="str">
+      <c r="AJ10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK10" s="38" t="str">
+      <c r="AK10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AL10" s="38" t="str">
+      <c r="AL10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AM10" s="38" t="str">
+      <c r="AM10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AN10" s="38" t="str">
+      <c r="AN10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO10" s="38" t="str">
+      <c r="AO10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AP10" s="38" t="str">
+      <c r="AP10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AQ10" s="38" t="str">
+      <c r="AQ10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AR10" s="38" t="str">
+      <c r="AR10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AS10" s="38" t="str">
+      <c r="AS10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AT10" s="38" t="str">
+      <c r="AT10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AU10" s="38" t="str">
+      <c r="AU10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AV10" s="38" t="str">
+      <c r="AV10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AW10" s="38" t="str">
+      <c r="AW10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AX10" s="38" t="str">
+      <c r="AX10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AY10" s="38" t="str">
+      <c r="AY10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AZ10" s="38" t="str">
+      <c r="AZ10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BA10" s="38" t="str">
+      <c r="BA10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BB10" s="38" t="str">
+      <c r="BB10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BC10" s="38" t="str">
+      <c r="BC10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BD10" s="38" t="str">
+      <c r="BD10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BE10" s="38" t="str">
+      <c r="BE10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF10" s="38" t="str">
+      <c r="BF10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BG10" s="38" t="str">
+      <c r="BG10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BH10" s="38" t="str">
+      <c r="BH10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BI10" s="38" t="str">
+      <c r="BI10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BJ10" s="38" t="str">
+      <c r="BJ10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BK10" s="38" t="str">
+      <c r="BK10" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -15816,248 +16898,248 @@
         <v>0</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>ターム内容!$B7</f>
         <v>田中</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <f>E9+1</f>
         <v>45108</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <f>D11+F11-1</f>
         <v>45114</v>
       </c>
       <c r="F11" s="22">
         <v>7</v>
       </c>
-      <c r="G11" s="41" t="str">
+      <c r="G11" s="40" t="str">
         <f t="shared" ref="G11:BK11" si="11">IF(AND($D11&lt;=G$1,$E11&gt;=G$1),"●","")</f>
         <v/>
       </c>
-      <c r="H11" s="41" t="str">
+      <c r="H11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I11" s="41" t="str">
+      <c r="I11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J11" s="41" t="str">
+      <c r="J11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K11" s="41" t="str">
+      <c r="K11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L11" s="41" t="str">
+      <c r="L11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M11" s="41" t="str">
+      <c r="M11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N11" s="41" t="str">
+      <c r="N11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O11" s="41" t="str">
+      <c r="O11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P11" s="41" t="str">
+      <c r="P11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q11" s="41" t="str">
+      <c r="Q11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R11" s="41" t="str">
+      <c r="R11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S11" s="41" t="str">
+      <c r="S11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T11" s="41" t="str">
+      <c r="T11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="U11" s="41" t="str">
+      <c r="U11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V11" s="41" t="str">
+      <c r="V11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="W11" s="41" t="str">
+      <c r="W11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="X11" s="41" t="str">
+      <c r="X11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Y11" s="41" t="str">
+      <c r="Y11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Z11" s="41" t="str">
+      <c r="Z11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA11" s="41" t="str">
+      <c r="AA11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB11" s="41" t="str">
+      <c r="AB11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC11" s="41" t="str">
+      <c r="AC11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AD11" s="41" t="str">
+      <c r="AD11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE11" s="41" t="str">
+      <c r="AE11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF11" s="41" t="str">
+      <c r="AF11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AG11" s="41" t="str">
+      <c r="AG11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AH11" s="41" t="str">
+      <c r="AH11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI11" s="41" t="str">
+      <c r="AI11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AJ11" s="41" t="str">
+      <c r="AJ11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK11" s="41" t="str">
+      <c r="AK11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL11" s="41" t="str">
+      <c r="AL11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AM11" s="41" t="str">
+      <c r="AM11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AN11" s="41" t="str">
+      <c r="AN11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AO11" s="41" t="str">
+      <c r="AO11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP11" s="41" t="str">
+      <c r="AP11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AQ11" s="41" t="str">
+      <c r="AQ11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AR11" s="41" t="str">
+      <c r="AR11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AS11" s="41" t="str">
+      <c r="AS11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AT11" s="41" t="str">
+      <c r="AT11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AU11" s="41" t="str">
+      <c r="AU11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AV11" s="41" t="str">
+      <c r="AV11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AW11" s="41" t="str">
+      <c r="AW11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AX11" s="41" t="str">
+      <c r="AX11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AY11" s="41" t="str">
+      <c r="AY11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AZ11" s="41" t="str">
+      <c r="AZ11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BA11" s="41" t="str">
+      <c r="BA11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BB11" s="41" t="str">
+      <c r="BB11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BC11" s="41" t="str">
+      <c r="BC11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BD11" s="41" t="str">
+      <c r="BD11" s="40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BE11" s="41" t="str">
+      <c r="BE11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>
-      <c r="BF11" s="41" t="str">
+      <c r="BF11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>
-      <c r="BG11" s="41" t="str">
+      <c r="BG11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>
-      <c r="BH11" s="41" t="str">
+      <c r="BH11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>
-      <c r="BI11" s="41" t="str">
+      <c r="BI11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>
-      <c r="BJ11" s="41" t="str">
+      <c r="BJ11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>
-      <c r="BK11" s="41" t="str">
+      <c r="BK11" s="40" t="str">
         <f t="shared" si="11"/>
         <v>●</v>
       </c>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86FFA6-1BAB-DC44-AEB1-BA987F146DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F7B4A-BC99-BE45-869C-990948EB1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -2354,7 +2354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2478,44 +2478,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2537,15 +2502,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2558,44 +2514,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2607,6 +2561,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4112,7 +4109,7 @@
   </sheetPr>
   <dimension ref="A1:F996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5327,146 +5324,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5477,8 +5474,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -5487,8 +5484,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -5497,8 +5494,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -5507,8 +5504,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="76" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -5519,8 +5516,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -5529,8 +5526,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -5539,8 +5536,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -5549,8 +5546,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -5559,8 +5556,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="76" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -5571,8 +5568,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -5581,8 +5578,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -5591,33 +5588,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -6596,6 +6593,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -6612,14 +6617,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9324,8 +9321,8 @@
   </sheetPr>
   <dimension ref="A1:F967"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="139" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9932,8 +9929,8 @@
       <c r="A48" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>150</v>
+      <c r="B48" s="56" t="s">
+        <v>290</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -12247,9 +12244,9 @@
     <col min="1" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="74" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12258,9 +12255,9 @@
       <c r="B1" s="34"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
-      <c r="E1" s="89"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="83"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12268,9 +12265,9 @@
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="89"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="83"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12280,9 +12277,9 @@
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="89"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="83"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12294,13 +12291,13 @@
       <c r="D4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="67" t="s">
         <v>179</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="67" t="s">
         <v>181</v>
       </c>
       <c r="H4" s="26" t="s">
@@ -12310,19 +12307,19 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="98" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="100" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="63" t="s">
         <v>309</v>
       </c>
       <c r="H5" s="22" t="s">
@@ -12332,15 +12329,15 @@
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="77"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="90"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="84"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="22" t="s">
         <v>311</v>
       </c>
@@ -12348,19 +12345,19 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="103" t="s">
         <v>316</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="28" t="s">
         <v>358</v>
       </c>
@@ -12368,17 +12365,17 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="60" t="s">
         <v>315</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="92"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="28" t="s">
         <v>359</v>
       </c>
@@ -12386,17 +12383,17 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="100" t="s">
         <v>317</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="29" t="s">
         <v>361</v>
       </c>
@@ -12404,15 +12401,15 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="81"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="85"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="28" t="s">
         <v>360</v>
       </c>
@@ -12426,11 +12423,11 @@
       <c r="D11" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G11" s="85"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="28" t="s">
         <v>381</v>
       </c>
@@ -12438,17 +12435,17 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="97" t="s">
         <v>318</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H12" s="28" t="s">
@@ -12458,15 +12455,15 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H13" s="28" t="s">
@@ -12482,13 +12479,13 @@
       <c r="D14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="69" t="s">
         <v>320</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="G14" s="85"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="28" t="s">
         <v>376</v>
       </c>
@@ -12502,13 +12499,13 @@
       <c r="D15" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="70" t="s">
         <v>321</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G15" s="84"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="22" t="s">
         <v>380</v>
       </c>
@@ -12522,13 +12519,13 @@
       <c r="D16" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="71" t="s">
         <v>325</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H16" s="22" t="s">
@@ -12544,13 +12541,13 @@
       <c r="D17" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="72" t="s">
         <v>324</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H17" s="22" t="s">
@@ -12566,13 +12563,13 @@
       <c r="D18" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="100" t="s">
         <v>329</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H18" s="22" t="s">
@@ -12588,11 +12585,11 @@
       <c r="D19" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E19" s="92"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -12602,17 +12599,17 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="61" t="s">
         <v>328</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -12622,19 +12619,19 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="59" t="s">
         <v>330</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="105" t="s">
         <v>333</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -12644,17 +12641,17 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="61" t="s">
         <v>331</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="G22" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H22" s="28" t="s">
@@ -12664,17 +12661,17 @@
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="104" t="s">
         <v>332</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E23" s="101"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H23" s="28" t="s">
@@ -12684,15 +12681,15 @@
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E24" s="97"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H24" s="28" t="s">
@@ -12708,13 +12705,13 @@
       <c r="D25" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="108" t="s">
         <v>336</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="G25" s="85" t="s">
+      <c r="G25" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H25" s="28" t="s">
@@ -12730,11 +12727,11 @@
       <c r="D26" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="103"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H26" s="28" t="s">
@@ -12744,15 +12741,15 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="61" t="s">
         <v>346</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E27" s="104"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H27" s="28"/>
@@ -12760,15 +12757,15 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="59" t="s">
         <v>347</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E28" s="105"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="85" t="s">
+      <c r="G28" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H28" s="28"/>
@@ -12782,9 +12779,9 @@
       <c r="D29" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="106"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="85" t="s">
+      <c r="G29" s="64" t="s">
         <v>281</v>
       </c>
       <c r="H29" s="28"/>
@@ -12798,13 +12795,13 @@
       <c r="D30" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -12820,11 +12817,11 @@
       <c r="D31" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E31" s="90"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H31" s="22" t="s">
@@ -12840,13 +12837,13 @@
       <c r="D32" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="75" t="s">
         <v>354</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H32" s="22" t="s">
@@ -12862,13 +12859,13 @@
       <c r="D33" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="103" t="s">
         <v>355</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -12884,11 +12881,11 @@
       <c r="D34" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E34" s="92"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H34" s="22" t="s">
@@ -12904,11 +12901,11 @@
       <c r="D35" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E35" s="81"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="63" t="s">
         <v>281</v>
       </c>
       <c r="H35" s="22" t="s">
@@ -12920,9 +12917,9 @@
       <c r="B36" s="34"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="96"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="84"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12930,9 +12927,9 @@
       <c r="B37" s="34"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="89"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="33"/>
-      <c r="G37" s="83"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12942,129 +12939,129 @@
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="89"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="83"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="89"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="83"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="89"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="83"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="89"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="83"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="110" t="s">
         <v>339</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="89"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="33"/>
-      <c r="G42" s="83"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="110" t="s">
         <v>340</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="89"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="83"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="89"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="83"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="89"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="83"/>
+      <c r="G45" s="62"/>
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="110" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="89"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="83"/>
+      <c r="G46" s="62"/>
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="89"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="83"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="89"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="83"/>
+      <c r="G48" s="62"/>
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13074,151 +13071,151 @@
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="89"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="83"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="89"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="83"/>
+      <c r="G50" s="62"/>
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="110" t="s">
         <v>407</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="89"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="33"/>
-      <c r="G51" s="83"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="89"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="33"/>
-      <c r="G52" s="83"/>
+      <c r="G52" s="62"/>
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="110" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="89"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="83"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="110" t="s">
         <v>376</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="89"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="33"/>
-      <c r="G54" s="83"/>
+      <c r="G54" s="62"/>
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="110" t="s">
         <v>379</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="89"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="83"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="33"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="110" t="s">
         <v>408</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="89"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="83"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="33"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="89"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="83"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="33"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="89"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="83"/>
+      <c r="G58" s="62"/>
       <c r="H58" s="33"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="110" t="s">
         <v>411</v>
       </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="89"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="83"/>
+      <c r="G59" s="62"/>
       <c r="H59" s="33"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="89"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="83"/>
+      <c r="G60" s="62"/>
       <c r="H60" s="33"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="89"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="83"/>
+      <c r="G61" s="62"/>
       <c r="H61" s="33"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13226,9 +13223,9 @@
       <c r="B62" s="34"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
-      <c r="E62" s="89"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="83"/>
+      <c r="G62" s="62"/>
       <c r="H62" s="33"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13236,9 +13233,9 @@
       <c r="B63" s="34"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
-      <c r="E63" s="89"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="83"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13246,9 +13243,9 @@
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
-      <c r="E64" s="89"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="83"/>
+      <c r="G64" s="62"/>
       <c r="H64" s="33"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13258,171 +13255,171 @@
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
-      <c r="E65" s="89"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="83"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="33"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="88" t="s">
+      <c r="D66" s="81"/>
+      <c r="E66" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="60"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="86" t="s">
         <v>393</v>
       </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="96" t="s">
+      <c r="D67" s="87"/>
+      <c r="E67" s="72" t="s">
         <v>394</v>
       </c>
-      <c r="F67" s="68" t="s">
+      <c r="F67" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="G67" s="60"/>
+      <c r="G67" s="81"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="96" t="s">
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="72" t="s">
         <v>395</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G68" s="60"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="113" t="s">
+      <c r="C69" s="90" t="s">
         <v>398</v>
       </c>
-      <c r="D69" s="114"/>
-      <c r="E69" s="98" t="s">
+      <c r="D69" s="91"/>
+      <c r="E69" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G69" s="60"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="98" t="s">
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="F70" s="68" t="s">
+      <c r="F70" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G70" s="60"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="96" t="s">
+      <c r="C71" s="92"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="F71" s="68" t="s">
+      <c r="F71" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G71" s="60"/>
+      <c r="G71" s="81"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="96" t="s">
+      <c r="C72" s="94"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="72" t="s">
         <v>402</v>
       </c>
-      <c r="F72" s="68" t="s">
+      <c r="F72" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G72" s="60"/>
+      <c r="G72" s="81"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="113" t="s">
+      <c r="C73" s="90" t="s">
         <v>403</v>
       </c>
-      <c r="D73" s="114"/>
-      <c r="E73" s="98" t="s">
+      <c r="D73" s="91"/>
+      <c r="E73" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="F73" s="68" t="s">
+      <c r="F73" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G73" s="60"/>
+      <c r="G73" s="81"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="98" t="s">
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="F74" s="68" t="s">
+      <c r="F74" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G74" s="60"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="96" t="s">
+      <c r="C75" s="92"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="F75" s="68" t="s">
+      <c r="F75" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G75" s="60"/>
+      <c r="G75" s="81"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="96" t="s">
+      <c r="C76" s="94"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="F76" s="68" t="s">
+      <c r="F76" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="G76" s="60"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14362,11 +14359,43 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="C69:D72"/>
-    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E7:E13"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="F71:G71"/>
@@ -14374,43 +14403,11 @@
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="C69:D72"/>
+    <mergeCell ref="C73:D76"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14443,20 +14440,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="113"/>
+      <c r="B1" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="113" t="s">
         <v>192</v>
       </c>
       <c r="G1" s="35">
@@ -14689,12 +14686,12 @@
       </c>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="36" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -14925,14 +14922,14 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="37" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -16167,14 +16164,14 @@
       </c>
     </row>
     <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="60"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="37" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -16656,14 +16653,14 @@
       </c>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="37" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>

--- a/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
+++ b/Req/田中さん Web開発上級 生徒様用案件シー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilon/laravel/Rese/Req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F7B4A-BC99-BE45-869C-990948EB1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE963933-2007-3449-BC3F-5B3B002CBF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ターム内容" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="414">
   <si>
     <t>※下記シート内の赤く塗りつぶされている箇所は、初回面談の際に変更させていただきます。</t>
   </si>
@@ -2523,22 +2523,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2561,43 +2598,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5324,146 +5324,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="81"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="82" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="78" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5474,8 +5474,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -5484,8 +5484,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -5494,8 +5494,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -5504,8 +5504,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
-      <c r="B18" s="76" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="78" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -5516,8 +5516,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -5526,8 +5526,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -5536,8 +5536,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -5546,8 +5546,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -5556,8 +5556,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="78"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="78" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -5568,8 +5568,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
@@ -5578,8 +5578,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -5588,33 +5588,33 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="81"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="82" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="81"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="82" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="81"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="15" t="s">
         <v>86</v>
       </c>
@@ -6593,14 +6593,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A25"/>
@@ -6617,6 +6609,14 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9321,8 +9321,8 @@
   </sheetPr>
   <dimension ref="A1:F967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="139" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9414,7 +9414,9 @@
         <v>152</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="E6" s="22" t="s">
         <v>144</v>
       </c>
@@ -12235,7 +12237,7 @@
   </sheetPr>
   <dimension ref="A1:H1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A83" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
@@ -12307,13 +12309,13 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="91" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="86" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -12329,11 +12331,11 @@
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="99"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="22" t="s">
         <v>308</v>
       </c>
@@ -12351,7 +12353,7 @@
       <c r="D7" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="88" t="s">
         <v>316</v>
       </c>
       <c r="F7" s="28" t="s">
@@ -12371,7 +12373,7 @@
       <c r="D8" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="28" t="s">
         <v>364</v>
       </c>
@@ -12383,13 +12385,13 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="86" t="s">
         <v>317</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="29" t="s">
         <v>362</v>
       </c>
@@ -12401,11 +12403,11 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="102"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="28" t="s">
         <v>365</v>
       </c>
@@ -12423,7 +12425,7 @@
       <c r="D11" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="28" t="s">
         <v>308</v>
       </c>
@@ -12435,13 +12437,13 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="92" t="s">
         <v>318</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="28" t="s">
         <v>366</v>
       </c>
@@ -12455,11 +12457,11 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="28" t="s">
         <v>367</v>
       </c>
@@ -12563,7 +12565,7 @@
       <c r="D18" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="86" t="s">
         <v>329</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -12585,7 +12587,7 @@
       <c r="D19" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E19" s="104"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="22" t="s">
         <v>362</v>
       </c>
@@ -12605,7 +12607,7 @@
       <c r="D20" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="101"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="22" t="s">
         <v>308</v>
       </c>
@@ -12625,7 +12627,7 @@
       <c r="D21" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="94" t="s">
         <v>333</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -12647,7 +12649,7 @@
       <c r="D22" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="106"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="28" t="s">
         <v>362</v>
       </c>
@@ -12661,13 +12663,13 @@
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="89" t="s">
         <v>332</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E23" s="106"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="28" t="s">
         <v>368</v>
       </c>
@@ -12681,11 +12683,11 @@
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="102"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E24" s="107"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="28" t="s">
         <v>308</v>
       </c>
@@ -12705,7 +12707,7 @@
       <c r="D25" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="97" t="s">
         <v>336</v>
       </c>
       <c r="F25" s="28" t="s">
@@ -12727,7 +12729,7 @@
       <c r="D26" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="109"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="28" t="s">
         <v>370</v>
       </c>
@@ -12747,7 +12749,7 @@
       <c r="D27" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E27" s="98"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="28"/>
       <c r="G27" s="64" t="s">
         <v>281</v>
@@ -12763,7 +12765,7 @@
       <c r="D28" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E28" s="97"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="28"/>
       <c r="G28" s="64" t="s">
         <v>281</v>
@@ -12779,7 +12781,7 @@
       <c r="D29" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="99"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="28"/>
       <c r="G29" s="64" t="s">
         <v>281</v>
@@ -12795,7 +12797,7 @@
       <c r="D30" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="86" t="s">
         <v>351</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -12817,7 +12819,7 @@
       <c r="D31" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E31" s="101"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="22" t="s">
         <v>362</v>
       </c>
@@ -12859,7 +12861,7 @@
       <c r="D33" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="88" t="s">
         <v>355</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -12881,7 +12883,7 @@
       <c r="D34" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E34" s="104"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="22" t="s">
         <v>362</v>
       </c>
@@ -12901,7 +12903,7 @@
       <c r="D35" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E35" s="102"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="22" t="s">
         <v>308</v>
       </c>
@@ -12950,7 +12952,7 @@
       <c r="C39" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="68"/>
       <c r="F39" s="33"/>
       <c r="G39" s="62"/>
@@ -12959,10 +12961,10 @@
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="81"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="68"/>
       <c r="F40" s="33"/>
       <c r="G40" s="62"/>
@@ -12971,10 +12973,10 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="81"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="68"/>
       <c r="F41" s="33"/>
       <c r="G41" s="62"/>
@@ -12983,10 +12985,10 @@
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="D42" s="81"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="68"/>
       <c r="F42" s="33"/>
       <c r="G42" s="62"/>
@@ -12995,10 +12997,10 @@
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="D43" s="81"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="68"/>
       <c r="F43" s="33"/>
       <c r="G43" s="62"/>
@@ -13007,10 +13009,10 @@
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="D44" s="81"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="68"/>
       <c r="F44" s="33"/>
       <c r="G44" s="62"/>
@@ -13019,10 +13021,10 @@
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="D45" s="81"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="68"/>
       <c r="F45" s="33"/>
       <c r="G45" s="62"/>
@@ -13031,10 +13033,10 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="81"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="68"/>
       <c r="F46" s="33"/>
       <c r="G46" s="62"/>
@@ -13043,10 +13045,10 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="110" t="s">
+      <c r="C47" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="D47" s="81"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="68"/>
       <c r="F47" s="33"/>
       <c r="G47" s="62"/>
@@ -13055,10 +13057,10 @@
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="D48" s="81"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="68"/>
       <c r="F48" s="33"/>
       <c r="G48" s="62"/>
@@ -13082,7 +13084,7 @@
       <c r="C50" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="81"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="68"/>
       <c r="F50" s="33"/>
       <c r="G50" s="62"/>
@@ -13091,10 +13093,10 @@
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="110" t="s">
+      <c r="C51" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="D51" s="81"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="68"/>
       <c r="F51" s="33"/>
       <c r="G51" s="62"/>
@@ -13103,10 +13105,10 @@
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="110" t="s">
+      <c r="C52" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="D52" s="81"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="68"/>
       <c r="F52" s="33"/>
       <c r="G52" s="62"/>
@@ -13115,10 +13117,10 @@
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="81"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="68"/>
       <c r="F53" s="33"/>
       <c r="G53" s="62"/>
@@ -13127,10 +13129,10 @@
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="D54" s="81"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="68"/>
       <c r="F54" s="33"/>
       <c r="G54" s="62"/>
@@ -13139,10 +13141,10 @@
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="110" t="s">
+      <c r="C55" s="83" t="s">
         <v>379</v>
       </c>
-      <c r="D55" s="81"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="68"/>
       <c r="F55" s="33"/>
       <c r="G55" s="62"/>
@@ -13151,10 +13153,10 @@
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="110" t="s">
+      <c r="C56" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="D56" s="81"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="68"/>
       <c r="F56" s="33"/>
       <c r="G56" s="62"/>
@@ -13163,10 +13165,10 @@
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="110" t="s">
+      <c r="C57" s="83" t="s">
         <v>409</v>
       </c>
-      <c r="D57" s="81"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="68"/>
       <c r="F57" s="33"/>
       <c r="G57" s="62"/>
@@ -13175,10 +13177,10 @@
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="110" t="s">
+      <c r="C58" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="D58" s="81"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="68"/>
       <c r="F58" s="33"/>
       <c r="G58" s="62"/>
@@ -13187,10 +13189,10 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="110" t="s">
+      <c r="C59" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="D59" s="81"/>
+      <c r="D59" s="77"/>
       <c r="E59" s="68"/>
       <c r="F59" s="33"/>
       <c r="G59" s="62"/>
@@ -13199,10 +13201,10 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="110" t="s">
+      <c r="C60" s="83" t="s">
         <v>412</v>
       </c>
-      <c r="D60" s="81"/>
+      <c r="D60" s="77"/>
       <c r="E60" s="68"/>
       <c r="F60" s="33"/>
       <c r="G60" s="62"/>
@@ -13211,8 +13213,8 @@
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="84"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="100"/>
       <c r="E61" s="68"/>
       <c r="F61" s="33"/>
       <c r="G61" s="62"/>
@@ -13266,160 +13268,160 @@
       <c r="C66" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="81"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="67" t="s">
         <v>187</v>
       </c>
       <c r="F66" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="81"/>
+      <c r="G66" s="77"/>
       <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="D67" s="87"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="72" t="s">
         <v>394</v>
       </c>
-      <c r="F67" s="96" t="s">
+      <c r="F67" s="84" t="s">
         <v>396</v>
       </c>
-      <c r="G67" s="81"/>
+      <c r="G67" s="77"/>
       <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="89"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="104"/>
       <c r="E68" s="72" t="s">
         <v>395</v>
       </c>
-      <c r="F68" s="96" t="s">
+      <c r="F68" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G68" s="81"/>
+      <c r="G68" s="77"/>
       <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="D69" s="91"/>
+      <c r="D69" s="106"/>
       <c r="E69" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="F69" s="96" t="s">
+      <c r="F69" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G69" s="81"/>
+      <c r="G69" s="77"/>
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="108"/>
       <c r="E70" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="F70" s="96" t="s">
+      <c r="F70" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G70" s="81"/>
+      <c r="G70" s="77"/>
       <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="93"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="108"/>
       <c r="E71" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="F71" s="96" t="s">
+      <c r="F71" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G71" s="81"/>
+      <c r="G71" s="77"/>
       <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="95"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="110"/>
       <c r="E72" s="72" t="s">
         <v>402</v>
       </c>
-      <c r="F72" s="96" t="s">
+      <c r="F72" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G72" s="81"/>
+      <c r="G72" s="77"/>
       <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="90" t="s">
+      <c r="C73" s="105" t="s">
         <v>403</v>
       </c>
-      <c r="D73" s="91"/>
+      <c r="D73" s="106"/>
       <c r="E73" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="F73" s="96" t="s">
+      <c r="F73" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G73" s="81"/>
+      <c r="G73" s="77"/>
       <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="108"/>
       <c r="E74" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="F74" s="96" t="s">
+      <c r="F74" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G74" s="81"/>
+      <c r="G74" s="77"/>
       <c r="H74" s="33"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="93"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="108"/>
       <c r="E75" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="F75" s="96" t="s">
+      <c r="F75" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G75" s="81"/>
+      <c r="G75" s="77"/>
       <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="95"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="110"/>
       <c r="E76" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="F76" s="96" t="s">
+      <c r="F76" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G76" s="81"/>
+      <c r="G76" s="77"/>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14359,6 +14361,44 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
@@ -14366,48 +14406,10 @@
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D68"/>
     <mergeCell ref="C69:D72"/>
-    <mergeCell ref="C73:D76"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14688,10 +14690,10 @@
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="114"/>
       <c r="B2" s="114"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="36" t="str">
         <f t="shared" ref="G2:BK2" si="1">TEXT(G1,"ddd")</f>
         <v>Fri</v>
@@ -14925,11 +14927,11 @@
       <c r="A3" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="37" t="str">
         <f t="shared" ref="G3:BK3" si="2">IF(AND($D3&lt;=G$1,$E3&gt;=G$1),"●","")</f>
         <v/>
@@ -16167,11 +16169,11 @@
       <c r="A8" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="37" t="str">
         <f t="shared" ref="G8:BK8" si="8">IF(AND($D8&lt;=G$1,$E8&gt;=G$1),"●","")</f>
         <v/>
@@ -16656,11 +16658,11 @@
       <c r="A10" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="37" t="str">
         <f t="shared" ref="G10:BK10" si="10">IF(AND($D10&lt;=G$1,$E10&gt;=G$1),"●","")</f>
         <v/>
